--- a/Data/perhitungan laptop.xlsx
+++ b/Data/perhitungan laptop.xlsx
@@ -1,45 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PENTING\#SKRIPSI\SIMULASI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\wkroc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C04D725-F220-428E-A30F-0329B317A10E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="kriteria" sheetId="3" r:id="rId2"/>
-    <sheet name="processor ranks" sheetId="9" r:id="rId3"/>
-    <sheet name="1jutaan" sheetId="10" r:id="rId4"/>
-    <sheet name="2jutaan" sheetId="11" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="12" r:id="rId2"/>
+    <sheet name="kriteria" sheetId="3" r:id="rId3"/>
+    <sheet name="processor ranks" sheetId="9" r:id="rId4"/>
+    <sheet name="1jutaan" sheetId="10" r:id="rId5"/>
+    <sheet name="2jutaan" sheetId="11" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Saiful</author>
   </authors>
   <commentList>
-    <comment ref="B9" authorId="0" shapeId="0">
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -58,12 +54,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>user</author>
   </authors>
   <commentList>
-    <comment ref="B30" authorId="0" shapeId="0">
+    <comment ref="B30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -83,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="199">
   <si>
     <t>Harga</t>
   </si>
@@ -659,12 +655,33 @@
   </si>
   <si>
     <t>U 1</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>batasatas</t>
+  </si>
+  <si>
+    <t>batasbawah</t>
+  </si>
+  <si>
+    <t>kondisilain</t>
+  </si>
+  <si>
+    <t>indexs</t>
+  </si>
+  <si>
+    <t>nilai</t>
+  </si>
+  <si>
+    <t>kodealternatif</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -933,12 +950,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -950,20 +961,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1010,14 +1009,47 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1025,23 +1057,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1322,12 +1339,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1349,29 +1366,29 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:11">
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="38">
-        <v>1</v>
-      </c>
-      <c r="D2" s="38">
-        <v>2</v>
-      </c>
-      <c r="E2" s="38">
-        <v>3</v>
-      </c>
-      <c r="F2" s="38">
+      <c r="C2" s="32">
+        <v>1</v>
+      </c>
+      <c r="D2" s="32">
+        <v>2</v>
+      </c>
+      <c r="E2" s="32">
+        <v>3</v>
+      </c>
+      <c r="F2" s="32">
         <v>4</v>
       </c>
-      <c r="G2" s="38">
+      <c r="G2" s="32">
         <v>5</v>
       </c>
-      <c r="H2" s="38"/>
+      <c r="H2" s="32"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
@@ -1382,21 +1399,21 @@
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
@@ -1405,19 +1422,19 @@
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="19"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
@@ -1426,19 +1443,19 @@
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="34" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="19"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="17"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
@@ -1447,21 +1464,21 @@
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="34">
         <v>10</v>
       </c>
       <c r="D6" s="7">
         <v>11.6</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="34">
         <v>14</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="34">
         <v>15.6</v>
       </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="19"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
@@ -1473,20 +1490,20 @@
       <c r="C7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="19"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
@@ -1495,17 +1512,17 @@
       <c r="B8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="19"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
@@ -1514,23 +1531,23 @@
       <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="44" t="s">
+      <c r="F9" s="35"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="K9" s="45"/>
+      <c r="K9" s="46"/>
     </row>
     <row r="10" spans="1:11" ht="15.75">
       <c r="A10" t="s">
@@ -1539,27 +1556,27 @@
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="19">
+      <c r="G10" s="35"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="17">
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K10" s="20" t="s">
+      <c r="K10" s="18" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1570,25 +1587,25 @@
       <c r="B11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="19">
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="17">
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K11" s="20" t="s">
+      <c r="K11" s="18" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1596,19 +1613,19 @@
       <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
       <c r="I12" s="5">
         <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K12" s="20" t="s">
+      <c r="K12" s="18" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1616,26 +1633,26 @@
       <c r="A13" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
@@ -1644,22 +1661,22 @@
       <c r="B15" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="42" t="s">
+      <c r="F15" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="42" t="s">
+      <c r="G15" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="H15" s="42" t="s">
+      <c r="H15" s="36" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1667,22 +1684,22 @@
       <c r="B16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="39">
+      <c r="C16" s="33">
         <v>1750000</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="33">
         <v>1650000</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E16" s="33">
         <v>1950000</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="33">
         <v>1000000</v>
       </c>
-      <c r="G16" s="39">
+      <c r="G16" s="33">
         <v>1000000</v>
       </c>
-      <c r="H16" s="39">
+      <c r="H16" s="33">
         <v>1950000</v>
       </c>
     </row>
@@ -1690,22 +1707,22 @@
       <c r="B17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="40" t="s">
+      <c r="F17" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="40" t="s">
+      <c r="G17" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="40" t="s">
+      <c r="H17" s="34" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1713,22 +1730,22 @@
       <c r="B18" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="F18" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="40" t="s">
+      <c r="G18" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="H18" s="40" t="s">
+      <c r="H18" s="34" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1736,22 +1753,22 @@
       <c r="B19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="40">
+      <c r="C19" s="34">
         <v>11.6</v>
       </c>
-      <c r="D19" s="40">
+      <c r="D19" s="34">
         <v>11.6</v>
       </c>
-      <c r="E19" s="40">
+      <c r="E19" s="34">
         <v>14</v>
       </c>
-      <c r="F19" s="40">
+      <c r="F19" s="34">
         <v>10</v>
       </c>
-      <c r="G19" s="40">
+      <c r="G19" s="34">
         <v>10</v>
       </c>
-      <c r="H19" s="40">
+      <c r="H19" s="34">
         <v>10</v>
       </c>
     </row>
@@ -1759,22 +1776,22 @@
       <c r="B20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="40" t="s">
+      <c r="E20" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="40" t="s">
+      <c r="F20" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="40" t="s">
+      <c r="G20" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="H20" s="40" t="s">
+      <c r="H20" s="34" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1782,22 +1799,22 @@
       <c r="B21" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="E21" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="G21" s="40" t="s">
+      <c r="G21" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="H21" s="40" t="s">
+      <c r="H21" s="34" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1805,22 +1822,22 @@
       <c r="B22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="D22" s="41" t="s">
+      <c r="D22" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="E22" s="41" t="s">
+      <c r="E22" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="G22" s="28" t="s">
+      <c r="G22" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="H22" s="41" t="s">
+      <c r="H22" s="35" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1828,22 +1845,22 @@
       <c r="B23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="40">
-        <v>2</v>
-      </c>
-      <c r="D23" s="40">
-        <v>2</v>
-      </c>
-      <c r="E23" s="40">
-        <v>2</v>
-      </c>
-      <c r="F23" s="40" t="s">
+      <c r="C23" s="34">
+        <v>2</v>
+      </c>
+      <c r="D23" s="34">
+        <v>2</v>
+      </c>
+      <c r="E23" s="34">
+        <v>2</v>
+      </c>
+      <c r="F23" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="40">
-        <v>2</v>
-      </c>
-      <c r="H23" s="40">
+      <c r="G23" s="34">
+        <v>2</v>
+      </c>
+      <c r="H23" s="34">
         <v>2</v>
       </c>
     </row>
@@ -1851,64 +1868,64 @@
       <c r="B24" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="40">
+      <c r="C24" s="34">
         <v>500</v>
       </c>
-      <c r="D24" s="40">
+      <c r="D24" s="34">
         <v>320</v>
       </c>
-      <c r="E24" s="40">
+      <c r="E24" s="34">
         <v>320</v>
       </c>
-      <c r="F24" s="40">
+      <c r="F24" s="34">
         <v>320</v>
       </c>
-      <c r="G24" s="40">
+      <c r="G24" s="34">
         <v>320</v>
       </c>
-      <c r="H24" s="40">
+      <c r="H24" s="34">
         <v>320</v>
       </c>
     </row>
     <row r="25" spans="2:8">
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="42" t="s">
+      <c r="D27" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="42" t="s">
+      <c r="E27" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="F27" s="42" t="s">
+      <c r="F27" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="42" t="s">
+      <c r="G27" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="H27" s="42" t="s">
+      <c r="H27" s="36" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1916,22 +1933,22 @@
       <c r="B28" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="39">
+      <c r="C28" s="33">
         <v>2500000</v>
       </c>
-      <c r="D28" s="39">
+      <c r="D28" s="33">
         <v>2850000</v>
       </c>
-      <c r="E28" s="39">
+      <c r="E28" s="33">
         <v>2600000</v>
       </c>
-      <c r="F28" s="39">
+      <c r="F28" s="33">
         <v>2700000</v>
       </c>
-      <c r="G28" s="39">
+      <c r="G28" s="33">
         <v>2300000</v>
       </c>
-      <c r="H28" s="39">
+      <c r="H28" s="33">
         <v>2250000</v>
       </c>
     </row>
@@ -1939,22 +1956,22 @@
       <c r="B29" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="40" t="s">
+      <c r="D29" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="40" t="s">
+      <c r="E29" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="40" t="s">
+      <c r="F29" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="40" t="s">
+      <c r="G29" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="40" t="s">
+      <c r="H29" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1962,22 +1979,22 @@
       <c r="B30" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="40" t="s">
+      <c r="D30" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="40" t="s">
+      <c r="E30" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="40" t="s">
+      <c r="F30" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="G30" s="40" t="s">
+      <c r="G30" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="H30" s="40" t="s">
+      <c r="H30" s="34" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1985,22 +2002,22 @@
       <c r="B31" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="40">
+      <c r="C31" s="34">
         <v>11.6</v>
       </c>
-      <c r="D31" s="40">
+      <c r="D31" s="34">
         <v>14</v>
       </c>
-      <c r="E31" s="40">
+      <c r="E31" s="34">
         <v>14</v>
       </c>
-      <c r="F31" s="40">
+      <c r="F31" s="34">
         <v>14</v>
       </c>
-      <c r="G31" s="40">
+      <c r="G31" s="34">
         <v>11.6</v>
       </c>
-      <c r="H31" s="40">
+      <c r="H31" s="34">
         <v>11.6</v>
       </c>
     </row>
@@ -2008,22 +2025,22 @@
       <c r="B32" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="40" t="s">
+      <c r="D32" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="40" t="s">
+      <c r="E32" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="F32" s="40" t="s">
+      <c r="F32" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="G32" s="40" t="s">
+      <c r="G32" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="H32" s="40" t="s">
+      <c r="H32" s="34" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2031,22 +2048,22 @@
       <c r="B33" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="40" t="s">
+      <c r="D33" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="E33" s="40" t="s">
+      <c r="E33" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="F33" s="40" t="s">
+      <c r="F33" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="G33" s="40" t="s">
+      <c r="G33" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="H33" s="40" t="s">
+      <c r="H33" s="34" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2054,22 +2071,22 @@
       <c r="B34" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="41" t="s">
+      <c r="C34" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="D34" s="41" t="s">
+      <c r="D34" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="E34" s="41" t="s">
+      <c r="E34" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="F34" s="41" t="s">
+      <c r="F34" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="G34" s="41" t="s">
+      <c r="G34" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="H34" s="41" t="s">
+      <c r="H34" s="35" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2077,22 +2094,22 @@
       <c r="B35" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="40">
+      <c r="C35" s="34">
         <v>4</v>
       </c>
-      <c r="D35" s="40">
+      <c r="D35" s="34">
         <v>4</v>
       </c>
-      <c r="E35" s="40">
-        <v>2</v>
-      </c>
-      <c r="F35" s="40">
+      <c r="E35" s="34">
+        <v>2</v>
+      </c>
+      <c r="F35" s="34">
         <v>4</v>
       </c>
-      <c r="G35" s="40">
+      <c r="G35" s="34">
         <v>4</v>
       </c>
-      <c r="H35" s="40">
+      <c r="H35" s="34">
         <v>2</v>
       </c>
     </row>
@@ -2100,32 +2117,32 @@
       <c r="B36" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="40">
+      <c r="C36" s="34">
         <v>500</v>
       </c>
-      <c r="D36" s="40">
+      <c r="D36" s="34">
         <v>1000</v>
       </c>
-      <c r="E36" s="40">
+      <c r="E36" s="34">
         <v>500</v>
       </c>
-      <c r="F36" s="40">
+      <c r="F36" s="34">
         <v>500</v>
       </c>
-      <c r="G36" s="40">
+      <c r="G36" s="34">
         <v>500</v>
       </c>
-      <c r="H36" s="40">
+      <c r="H36" s="34">
         <v>500</v>
       </c>
     </row>
     <row r="37" spans="2:8">
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
@@ -2143,7 +2160,1659 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C551A9-25DD-4097-A156-9DD73C6A68BE}">
+  <dimension ref="A1:G71"/>
+  <sheetViews>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>113</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>114</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>116</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>118</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>119</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>120</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>147</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>148</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>149</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>150</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>137</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>76</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>128</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>129</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>130</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>131</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>133</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>134</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>135</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>136</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>138</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>123</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+      <c r="F59">
+        <v>3</v>
+      </c>
+      <c r="G59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>124</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
+      </c>
+      <c r="F60">
+        <v>3</v>
+      </c>
+      <c r="G60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>125</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+      <c r="G61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>126</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+      <c r="G62">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>127</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+      <c r="F63">
+        <v>3</v>
+      </c>
+      <c r="G63">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>139</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64">
+        <v>3</v>
+      </c>
+      <c r="G64">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>140</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+      <c r="F65">
+        <v>3</v>
+      </c>
+      <c r="G65">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>141</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
+      <c r="G66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>142</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67">
+        <v>3</v>
+      </c>
+      <c r="G67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>143</v>
+      </c>
+      <c r="E68">
+        <v>3</v>
+      </c>
+      <c r="F68">
+        <v>3</v>
+      </c>
+      <c r="G68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>144</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
+      <c r="F69">
+        <v>3</v>
+      </c>
+      <c r="G69">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70" t="s">
+        <v>145</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+      <c r="F70">
+        <v>3</v>
+      </c>
+      <c r="G70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>146</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+      <c r="F71">
+        <v>3</v>
+      </c>
+      <c r="G71">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:J25"/>
   <sheetViews>
@@ -2164,26 +3833,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="2:10">
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="4" t="s">
@@ -2211,21 +3880,21 @@
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" s="4" t="s">
@@ -2242,8 +3911,8 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" s="4" t="s">
@@ -2260,8 +3929,8 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
@@ -2280,8 +3949,8 @@
         <v>15.6</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="4" t="s">
@@ -2302,8 +3971,8 @@
       <c r="G8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
@@ -2318,8 +3987,8 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="4" t="s">
@@ -2336,11 +4005,11 @@
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="44" t="s">
+      <c r="H10" s="17"/>
+      <c r="I10" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="J10" s="45"/>
+      <c r="J10" s="46"/>
     </row>
     <row r="11" spans="2:10" ht="15.75">
       <c r="B11" s="4" t="s">
@@ -2358,14 +4027,14 @@
       <c r="F11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="19">
+      <c r="G11" s="21"/>
+      <c r="H11" s="17">
         <v>1</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="18" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2384,13 +4053,13 @@
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="19">
+      <c r="H12" s="17">
         <v>2</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="J12" s="20" t="s">
+      <c r="J12" s="18" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2401,7 +4070,7 @@
       <c r="I13" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J13" s="20" t="s">
+      <c r="J13" s="18" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2424,7 +4093,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="7">
-        <f>C16/SUM(C$16:C$24)</f>
+        <f t="shared" ref="D16:D24" si="0">C16/SUM(C$16:C$24)</f>
         <v>0.12903225806451613</v>
       </c>
     </row>
@@ -2436,7 +4105,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="7">
-        <f>C17/SUM(C$16:C$24)</f>
+        <f t="shared" si="0"/>
         <v>9.6774193548387094E-2</v>
       </c>
     </row>
@@ -2448,7 +4117,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="7">
-        <f>C18/SUM(C$16:C$24)</f>
+        <f t="shared" si="0"/>
         <v>9.6774193548387094E-2</v>
       </c>
     </row>
@@ -2460,7 +4129,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="7">
-        <f>C19/SUM(C$16:C$24)</f>
+        <f t="shared" si="0"/>
         <v>0.12903225806451613</v>
       </c>
     </row>
@@ -2472,7 +4141,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="7">
-        <f>C20/SUM(C$16:C$24)</f>
+        <f t="shared" si="0"/>
         <v>0.16129032258064516</v>
       </c>
     </row>
@@ -2484,7 +4153,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="7">
-        <f>C21/SUM(C$16:C$24)</f>
+        <f t="shared" si="0"/>
         <v>6.4516129032258063E-2</v>
       </c>
     </row>
@@ -2496,7 +4165,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="7">
-        <f>C22/SUM(C$16:C$24)</f>
+        <f t="shared" si="0"/>
         <v>9.6774193548387094E-2</v>
       </c>
     </row>
@@ -2508,7 +4177,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="7">
-        <f>C23/SUM(C$16:C$24)</f>
+        <f t="shared" si="0"/>
         <v>0.12903225806451613</v>
       </c>
     </row>
@@ -2520,7 +4189,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="7">
-        <f>C24/SUM(C$16:C$24)</f>
+        <f t="shared" si="0"/>
         <v>9.6774193548387094E-2</v>
       </c>
     </row>
@@ -2544,12 +4213,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M124"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2562,871 +4231,871 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="37" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1">
-      <c r="A2" s="37">
-        <v>1</v>
-      </c>
-      <c r="B2" s="32" t="s">
+      <c r="A2" s="31">
+        <v>1</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="33">
-        <v>1</v>
-      </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
+      <c r="C2" s="27">
+        <v>1</v>
+      </c>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1">
-      <c r="A3" s="37">
-        <v>2</v>
-      </c>
-      <c r="B3" s="32" t="s">
+      <c r="A3" s="31">
+        <v>2</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="33">
-        <v>1</v>
-      </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
+      <c r="C3" s="27">
+        <v>1</v>
+      </c>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="37">
-        <v>3</v>
-      </c>
-      <c r="B4" s="32" t="s">
+      <c r="A4" s="31">
+        <v>3</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="33">
-        <v>1</v>
-      </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
+      <c r="C4" s="27">
+        <v>1</v>
+      </c>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="37">
+      <c r="A5" s="31">
         <v>4</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="33">
-        <v>1</v>
-      </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
+      <c r="C5" s="27">
+        <v>1</v>
+      </c>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="37">
+      <c r="A6" s="31">
         <v>5</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="33">
-        <v>1</v>
-      </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
+      <c r="C6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="37">
+      <c r="A7" s="31">
         <v>6</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="37">
+      <c r="A8" s="31">
         <v>7</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="27">
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="32" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75">
-      <c r="A9" s="37">
+      <c r="A9" s="31">
         <v>8</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="33">
-        <v>1</v>
-      </c>
-      <c r="E9" s="28" t="s">
+      <c r="C9" s="27">
+        <v>1</v>
+      </c>
+      <c r="E9" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="18" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75">
-      <c r="A10" s="37">
+      <c r="A10" s="31">
         <v>9</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="33">
-        <v>1</v>
-      </c>
-      <c r="E10" s="29" t="s">
+      <c r="C10" s="27">
+        <v>1</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="18" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75">
-      <c r="A11" s="37">
+      <c r="A11" s="31">
         <v>10</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="33">
-        <v>1</v>
-      </c>
-      <c r="E11" s="31" t="s">
+      <c r="C11" s="27">
+        <v>1</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="18" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="37">
+      <c r="A12" s="31">
         <v>11</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="37">
+      <c r="A13" s="31">
         <v>12</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="34">
-        <v>1</v>
-      </c>
-      <c r="E13" s="27" t="s">
+      <c r="C13" s="28">
+        <v>1</v>
+      </c>
+      <c r="E13" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="37">
+      <c r="A14" s="31">
         <v>13</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="37">
+      <c r="A15" s="31">
         <v>14</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="37">
+      <c r="A16" s="31">
         <v>15</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="37">
+      <c r="A17" s="31">
         <v>16</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="34">
+      <c r="C17" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="37">
+      <c r="A18" s="31">
         <v>17</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="34">
+      <c r="C18" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="37">
+      <c r="A19" s="31">
         <v>18</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="34">
+      <c r="C19" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="37">
+      <c r="A20" s="31">
         <v>19</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="34">
+      <c r="C20" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="37">
+      <c r="A21" s="31">
         <v>20</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="34">
+      <c r="C21" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="37">
+      <c r="A22" s="31">
         <v>21</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="34">
+      <c r="C22" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="37">
+      <c r="A23" s="31">
         <v>22</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="34">
+      <c r="C23" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="37">
+      <c r="A24" s="31">
         <v>23</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="34">
+      <c r="C24" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="37">
+      <c r="A25" s="31">
         <v>24</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="C25" s="34">
+      <c r="C25" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="37">
+      <c r="A26" s="31">
         <v>25</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="34">
+      <c r="C26" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="37">
+      <c r="A27" s="31">
         <v>26</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="34">
+      <c r="C27" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="37">
+      <c r="A28" s="31">
         <v>27</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="34">
+      <c r="C28" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="37">
+      <c r="A29" s="31">
         <v>28</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="34">
+      <c r="C29" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="37">
+      <c r="A30" s="31">
         <v>29</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="34">
+      <c r="C30" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="37">
+      <c r="A31" s="31">
         <v>30</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="34">
+      <c r="C31" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="37">
+      <c r="A32" s="31">
         <v>31</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="C32" s="34">
+      <c r="C32" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="37">
+      <c r="A33" s="31">
         <v>32</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="C33" s="34">
+      <c r="C33" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="37">
+      <c r="A34" s="31">
         <v>33</v>
       </c>
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="34">
+      <c r="C34" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="37">
+      <c r="A35" s="31">
         <v>34</v>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="C35" s="34">
+      <c r="C35" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="37">
+      <c r="A36" s="31">
         <v>35</v>
       </c>
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="C36" s="34">
+      <c r="C36" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="37">
+      <c r="A37" s="31">
         <v>36</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="C37" s="34">
+      <c r="C37" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="37">
+      <c r="A38" s="31">
         <v>37</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="34">
+      <c r="C38" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="37">
+      <c r="A39" s="31">
         <v>38</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="C39" s="34">
+      <c r="C39" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="37">
+      <c r="A40" s="31">
         <v>39</v>
       </c>
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="C40" s="34">
+      <c r="C40" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="37">
+      <c r="A41" s="31">
         <v>40</v>
       </c>
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="C41" s="34">
+      <c r="C41" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="37">
+      <c r="A42" s="31">
         <v>41</v>
       </c>
-      <c r="B42" s="32" t="s">
+      <c r="B42" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="C42" s="34">
+      <c r="C42" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="37">
+      <c r="A43" s="31">
         <v>42</v>
       </c>
-      <c r="B43" s="32" t="s">
+      <c r="B43" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="C43" s="34">
+      <c r="C43" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="37">
+      <c r="A44" s="31">
         <v>43</v>
       </c>
-      <c r="B44" s="32" t="s">
+      <c r="B44" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="C44" s="34">
+      <c r="C44" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="37">
+      <c r="A45" s="31">
         <v>44</v>
       </c>
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="C45" s="34">
+      <c r="C45" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="37">
+      <c r="A46" s="31">
         <v>45</v>
       </c>
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C46" s="34">
+      <c r="C46" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="37">
+      <c r="A47" s="31">
         <v>46</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B47" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C47" s="34">
+      <c r="C47" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="37">
+      <c r="A48" s="31">
         <v>47</v>
       </c>
-      <c r="B48" s="32" t="s">
+      <c r="B48" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="34">
+      <c r="C48" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="37">
+      <c r="A49" s="31">
         <v>48</v>
       </c>
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="C49" s="34">
+      <c r="C49" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="37">
+      <c r="A50" s="31">
         <v>49</v>
       </c>
-      <c r="B50" s="32" t="s">
+      <c r="B50" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="C50" s="34">
+      <c r="C50" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="37">
+      <c r="A51" s="31">
         <v>50</v>
       </c>
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="C51" s="34">
+      <c r="C51" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="37">
+      <c r="A52" s="31">
         <v>51</v>
       </c>
-      <c r="B52" s="35" t="s">
+      <c r="B52" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="C52" s="34">
+      <c r="C52" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="37">
+      <c r="A53" s="31">
         <v>52</v>
       </c>
-      <c r="B53" s="35" t="s">
+      <c r="B53" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="C53" s="34">
+      <c r="C53" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="37">
+      <c r="A54" s="31">
         <v>53</v>
       </c>
-      <c r="B54" s="35" t="s">
+      <c r="B54" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="C54" s="34">
+      <c r="C54" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="37">
+      <c r="A55" s="31">
         <v>54</v>
       </c>
-      <c r="B55" s="35" t="s">
+      <c r="B55" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="C55" s="34">
+      <c r="C55" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="37">
+      <c r="A56" s="31">
         <v>55</v>
       </c>
-      <c r="B56" s="35" t="s">
+      <c r="B56" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="C56" s="34">
+      <c r="C56" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="37">
+      <c r="A57" s="31">
         <v>56</v>
       </c>
-      <c r="B57" s="35" t="s">
+      <c r="B57" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="C57" s="34">
+      <c r="C57" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="37">
+      <c r="A58" s="31">
         <v>57</v>
       </c>
-      <c r="B58" s="35" t="s">
+      <c r="B58" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="C58" s="34">
+      <c r="C58" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="37">
+      <c r="A59" s="31">
         <v>58</v>
       </c>
-      <c r="B59" s="36" t="s">
+      <c r="B59" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="C59" s="34">
+      <c r="C59" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="37">
+      <c r="A60" s="31">
         <v>59</v>
       </c>
-      <c r="B60" s="36" t="s">
+      <c r="B60" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="C60" s="34">
+      <c r="C60" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="37">
+      <c r="A61" s="31">
         <v>60</v>
       </c>
-      <c r="B61" s="36" t="s">
+      <c r="B61" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="C61" s="34">
+      <c r="C61" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="37">
+      <c r="A62" s="31">
         <v>61</v>
       </c>
-      <c r="B62" s="36" t="s">
+      <c r="B62" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="C62" s="34">
+      <c r="C62" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="37">
+      <c r="A63" s="31">
         <v>62</v>
       </c>
-      <c r="B63" s="36" t="s">
+      <c r="B63" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="C63" s="34">
+      <c r="C63" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="37">
+      <c r="A64" s="31">
         <v>63</v>
       </c>
-      <c r="B64" s="36" t="s">
+      <c r="B64" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="C64" s="34">
+      <c r="C64" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="37">
+      <c r="A65" s="31">
         <v>64</v>
       </c>
-      <c r="B65" s="36" t="s">
+      <c r="B65" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="C65" s="34">
+      <c r="C65" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="37">
+      <c r="A66" s="31">
         <v>65</v>
       </c>
-      <c r="B66" s="36" t="s">
+      <c r="B66" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="C66" s="34">
+      <c r="C66" s="28">
         <v>3</v>
       </c>
       <c r="F66" s="10"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="37">
+      <c r="A67" s="31">
         <v>66</v>
       </c>
-      <c r="B67" s="36" t="s">
+      <c r="B67" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="C67" s="34">
+      <c r="C67" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="37">
+      <c r="A68" s="31">
         <v>67</v>
       </c>
-      <c r="B68" s="36" t="s">
+      <c r="B68" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="C68" s="34">
+      <c r="C68" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="37">
+      <c r="A69" s="31">
         <v>68</v>
       </c>
-      <c r="B69" s="36" t="s">
+      <c r="B69" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="34">
+      <c r="C69" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="37">
+      <c r="A70" s="31">
         <v>69</v>
       </c>
-      <c r="B70" s="36" t="s">
+      <c r="B70" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="C70" s="34">
+      <c r="C70" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="37">
+      <c r="A71" s="31">
         <v>70</v>
       </c>
-      <c r="B71" s="36" t="s">
+      <c r="B71" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="C71" s="34">
+      <c r="C71" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="21"/>
+      <c r="A72" s="19"/>
       <c r="B72"/>
       <c r="C72"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="21"/>
+      <c r="A73" s="19"/>
       <c r="B73"/>
       <c r="C73"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="21"/>
+      <c r="A74" s="19"/>
       <c r="B74"/>
       <c r="C74"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="21"/>
+      <c r="A75" s="19"/>
       <c r="B75"/>
       <c r="C75"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="21"/>
+      <c r="A76" s="19"/>
       <c r="B76"/>
       <c r="C76"/>
     </row>
@@ -3678,11 +5347,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:AC105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
@@ -3705,57 +5374,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:29">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="L2" s="53" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="L2" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="W2" s="55" t="s">
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="W2" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="36" t="s">
         <v>65</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -3774,37 +5443,37 @@
       <c r="P3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="52" t="s">
+      <c r="Q3" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="52" t="s">
+      <c r="R3" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="52" t="s">
+      <c r="S3" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="52" t="s">
+      <c r="T3" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="U3" s="52" t="s">
+      <c r="U3" s="41" t="s">
         <v>26</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="52" t="s">
+      <c r="Y3" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="Z3" s="52" t="s">
+      <c r="Z3" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="AA3" s="52" t="s">
+      <c r="AA3" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="AB3" s="52" t="s">
+      <c r="AB3" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="AC3" s="52" t="s">
+      <c r="AC3" s="41" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3812,22 +5481,22 @@
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="33">
         <v>1750000</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="33">
         <v>1650000</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D4" s="33">
         <v>1950000</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="33">
         <v>1000000</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="33">
         <v>1000000</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="33">
         <v>1950000</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -3843,7 +5512,7 @@
         <v>27</v>
       </c>
       <c r="N4" s="1"/>
-      <c r="O4" s="17" t="s">
+      <c r="O4" s="15" t="s">
         <v>177</v>
       </c>
       <c r="P4" s="4" t="s">
@@ -3864,7 +5533,7 @@
       <c r="U4" s="1">
         <v>3</v>
       </c>
-      <c r="W4" s="17" t="s">
+      <c r="W4" s="15" t="s">
         <v>177</v>
       </c>
       <c r="X4" s="4" t="s">
@@ -3895,22 +5564,22 @@
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="34" t="s">
         <v>9</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -3926,7 +5595,7 @@
         <v>28</v>
       </c>
       <c r="N5" s="1"/>
-      <c r="O5" s="17" t="s">
+      <c r="O5" s="15" t="s">
         <v>178</v>
       </c>
       <c r="P5" s="4" t="s">
@@ -3947,7 +5616,7 @@
       <c r="U5" s="1">
         <v>3</v>
       </c>
-      <c r="W5" s="17" t="s">
+      <c r="W5" s="15" t="s">
         <v>178</v>
       </c>
       <c r="X5" s="4" t="s">
@@ -3978,22 +5647,22 @@
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="34" t="s">
         <v>56</v>
       </c>
       <c r="I6" s="4" t="s">
@@ -4009,7 +5678,7 @@
         <v>29</v>
       </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="17" t="s">
+      <c r="O6" s="15" t="s">
         <v>179</v>
       </c>
       <c r="P6" s="4" t="s">
@@ -4030,7 +5699,7 @@
       <c r="U6" s="1">
         <v>3</v>
       </c>
-      <c r="W6" s="17" t="s">
+      <c r="W6" s="15" t="s">
         <v>179</v>
       </c>
       <c r="X6" s="4" t="s">
@@ -4061,22 +5730,22 @@
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="34">
         <v>11.6</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="34">
         <v>11.6</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="34">
         <v>14</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="34">
         <v>10</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="34">
         <v>10</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="34">
         <v>10</v>
       </c>
       <c r="I7" s="4" t="s">
@@ -4085,7 +5754,7 @@
       <c r="J7" s="7">
         <v>4</v>
       </c>
-      <c r="O7" s="17" t="s">
+      <c r="O7" s="15" t="s">
         <v>180</v>
       </c>
       <c r="P7" s="4" t="s">
@@ -4106,7 +5775,7 @@
       <c r="U7" s="1">
         <v>3</v>
       </c>
-      <c r="W7" s="17" t="s">
+      <c r="W7" s="15" t="s">
         <v>180</v>
       </c>
       <c r="X7" s="4" t="s">
@@ -4137,22 +5806,22 @@
       <c r="A8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="34" t="s">
         <v>52</v>
       </c>
       <c r="I8" s="4" t="s">
@@ -4161,7 +5830,7 @@
       <c r="J8" s="7">
         <v>5</v>
       </c>
-      <c r="O8" s="17" t="s">
+      <c r="O8" s="15" t="s">
         <v>181</v>
       </c>
       <c r="P8" s="4" t="s">
@@ -4182,7 +5851,7 @@
       <c r="U8" s="1">
         <v>3</v>
       </c>
-      <c r="W8" s="17" t="s">
+      <c r="W8" s="15" t="s">
         <v>181</v>
       </c>
       <c r="X8" s="4" t="s">
@@ -4213,22 +5882,22 @@
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="34" t="s">
         <v>68</v>
       </c>
       <c r="I9" s="4" t="s">
@@ -4237,7 +5906,7 @@
       <c r="J9" s="7">
         <v>2</v>
       </c>
-      <c r="O9" s="17" t="s">
+      <c r="O9" s="15" t="s">
         <v>182</v>
       </c>
       <c r="P9" s="4" t="s">
@@ -4258,7 +5927,7 @@
       <c r="U9" s="1">
         <v>3</v>
       </c>
-      <c r="W9" s="17" t="s">
+      <c r="W9" s="15" t="s">
         <v>182</v>
       </c>
       <c r="X9" s="4" t="s">
@@ -4289,22 +5958,22 @@
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="G10" s="41" t="s">
+      <c r="G10" s="35" t="s">
         <v>82</v>
       </c>
       <c r="I10" s="4" t="s">
@@ -4313,7 +5982,7 @@
       <c r="J10" s="7">
         <v>3</v>
       </c>
-      <c r="O10" s="17" t="s">
+      <c r="O10" s="15" t="s">
         <v>183</v>
       </c>
       <c r="P10" s="4" t="s">
@@ -4334,7 +6003,7 @@
       <c r="U10" s="1">
         <v>2</v>
       </c>
-      <c r="W10" s="17" t="s">
+      <c r="W10" s="15" t="s">
         <v>183</v>
       </c>
       <c r="X10" s="4" t="s">
@@ -4365,22 +6034,22 @@
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="40">
-        <v>2</v>
-      </c>
-      <c r="C11" s="40">
-        <v>2</v>
-      </c>
-      <c r="D11" s="40">
-        <v>2</v>
-      </c>
-      <c r="E11" s="40" t="s">
+      <c r="B11" s="34">
+        <v>2</v>
+      </c>
+      <c r="C11" s="34">
+        <v>2</v>
+      </c>
+      <c r="D11" s="34">
+        <v>2</v>
+      </c>
+      <c r="E11" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="40">
-        <v>2</v>
-      </c>
-      <c r="G11" s="40">
+      <c r="F11" s="34">
+        <v>2</v>
+      </c>
+      <c r="G11" s="34">
         <v>2</v>
       </c>
       <c r="I11" s="4" t="s">
@@ -4389,7 +6058,7 @@
       <c r="J11" s="7">
         <v>4</v>
       </c>
-      <c r="O11" s="17" t="s">
+      <c r="O11" s="15" t="s">
         <v>184</v>
       </c>
       <c r="P11" s="4" t="s">
@@ -4410,7 +6079,7 @@
       <c r="U11" s="1">
         <v>3</v>
       </c>
-      <c r="W11" s="17" t="s">
+      <c r="W11" s="15" t="s">
         <v>184</v>
       </c>
       <c r="X11" s="4" t="s">
@@ -4441,22 +6110,22 @@
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="40">
+      <c r="B12" s="34">
         <v>500</v>
       </c>
-      <c r="C12" s="40">
+      <c r="C12" s="34">
         <v>320</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="34">
         <v>320</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="34">
         <v>320</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="34">
         <v>320</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="34">
         <v>320</v>
       </c>
       <c r="I12" s="4" t="s">
@@ -4465,7 +6134,7 @@
       <c r="J12" s="7">
         <v>3</v>
       </c>
-      <c r="O12" s="17" t="s">
+      <c r="O12" s="15" t="s">
         <v>185</v>
       </c>
       <c r="P12" s="4" t="s">
@@ -4486,7 +6155,7 @@
       <c r="U12" s="1">
         <v>2</v>
       </c>
-      <c r="W12" s="17" t="s">
+      <c r="W12" s="15" t="s">
         <v>185</v>
       </c>
       <c r="X12" s="4" t="s">
@@ -4520,33 +6189,33 @@
       <c r="J13" s="12"/>
     </row>
     <row r="14" spans="1:29">
-      <c r="O14" s="18" t="s">
+      <c r="O14" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="P14" s="51" t="s">
+      <c r="P14" s="40" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:29">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
       <c r="I15" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O15" s="52" t="s">
+      <c r="O15" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="P15" s="51" t="s">
+      <c r="P15" s="40" t="s">
         <v>186</v>
       </c>
     </row>
@@ -4554,28 +6223,28 @@
       <c r="A16" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="42" t="s">
+      <c r="G16" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="40" t="s">
+      <c r="I16" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="J16" s="40">
+      <c r="J16" s="34">
         <v>4</v>
       </c>
     </row>
@@ -4583,28 +6252,28 @@
       <c r="A17" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="39">
-        <v>3</v>
-      </c>
-      <c r="C17" s="39">
-        <v>3</v>
-      </c>
-      <c r="D17" s="39">
-        <v>3</v>
-      </c>
-      <c r="E17" s="39">
+      <c r="B17" s="33">
+        <v>3</v>
+      </c>
+      <c r="C17" s="33">
+        <v>3</v>
+      </c>
+      <c r="D17" s="33">
+        <v>3</v>
+      </c>
+      <c r="E17" s="33">
         <v>4</v>
       </c>
-      <c r="F17" s="39">
+      <c r="F17" s="33">
         <v>4</v>
       </c>
-      <c r="G17" s="39">
-        <v>3</v>
-      </c>
-      <c r="I17" s="40" t="s">
+      <c r="G17" s="33">
+        <v>3</v>
+      </c>
+      <c r="I17" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="J17" s="40">
+      <c r="J17" s="34">
         <v>3</v>
       </c>
     </row>
@@ -4612,28 +6281,28 @@
       <c r="A18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="40">
-        <v>3</v>
-      </c>
-      <c r="C18" s="40">
-        <v>2</v>
-      </c>
-      <c r="D18" s="40">
-        <v>2</v>
-      </c>
-      <c r="E18" s="40">
-        <v>2</v>
-      </c>
-      <c r="F18" s="40">
-        <v>2</v>
-      </c>
-      <c r="G18" s="40">
-        <v>2</v>
-      </c>
-      <c r="I18" s="40" t="s">
+      <c r="B18" s="34">
+        <v>3</v>
+      </c>
+      <c r="C18" s="34">
+        <v>2</v>
+      </c>
+      <c r="D18" s="34">
+        <v>2</v>
+      </c>
+      <c r="E18" s="34">
+        <v>2</v>
+      </c>
+      <c r="F18" s="34">
+        <v>2</v>
+      </c>
+      <c r="G18" s="34">
+        <v>2</v>
+      </c>
+      <c r="I18" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="J18" s="40">
+      <c r="J18" s="34">
         <v>2</v>
       </c>
     </row>
@@ -4641,28 +6310,28 @@
       <c r="A19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="40">
-        <v>2</v>
-      </c>
-      <c r="C19" s="40">
-        <v>2</v>
-      </c>
-      <c r="D19" s="40">
-        <v>2</v>
-      </c>
-      <c r="E19" s="40">
-        <v>2</v>
-      </c>
-      <c r="F19" s="40">
-        <v>2</v>
-      </c>
-      <c r="G19" s="40">
-        <v>2</v>
-      </c>
-      <c r="I19" s="40" t="s">
+      <c r="B19" s="34">
+        <v>2</v>
+      </c>
+      <c r="C19" s="34">
+        <v>2</v>
+      </c>
+      <c r="D19" s="34">
+        <v>2</v>
+      </c>
+      <c r="E19" s="34">
+        <v>2</v>
+      </c>
+      <c r="F19" s="34">
+        <v>2</v>
+      </c>
+      <c r="G19" s="34">
+        <v>2</v>
+      </c>
+      <c r="I19" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="J19" s="40">
+      <c r="J19" s="34">
         <v>1</v>
       </c>
     </row>
@@ -4670,52 +6339,52 @@
       <c r="A20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="40">
-        <v>2</v>
-      </c>
-      <c r="C20" s="40">
-        <v>2</v>
-      </c>
-      <c r="D20" s="40">
-        <v>3</v>
-      </c>
-      <c r="E20" s="40">
-        <v>1</v>
-      </c>
-      <c r="F20" s="40">
-        <v>1</v>
-      </c>
-      <c r="G20" s="40">
-        <v>1</v>
-      </c>
-      <c r="J20" s="21"/>
+      <c r="B20" s="34">
+        <v>2</v>
+      </c>
+      <c r="C20" s="34">
+        <v>2</v>
+      </c>
+      <c r="D20" s="34">
+        <v>3</v>
+      </c>
+      <c r="E20" s="34">
+        <v>1</v>
+      </c>
+      <c r="F20" s="34">
+        <v>1</v>
+      </c>
+      <c r="G20" s="34">
+        <v>1</v>
+      </c>
+      <c r="J20" s="19"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="40">
+      <c r="B21" s="34">
         <v>4</v>
       </c>
-      <c r="C21" s="40">
-        <v>3</v>
-      </c>
-      <c r="D21" s="40">
-        <v>3</v>
-      </c>
-      <c r="E21" s="40">
-        <v>3</v>
-      </c>
-      <c r="F21" s="40">
-        <v>3</v>
-      </c>
-      <c r="G21" s="40">
-        <v>3</v>
-      </c>
-      <c r="I21" s="46" t="s">
+      <c r="C21" s="34">
+        <v>3</v>
+      </c>
+      <c r="D21" s="34">
+        <v>3</v>
+      </c>
+      <c r="E21" s="34">
+        <v>3</v>
+      </c>
+      <c r="F21" s="34">
+        <v>3</v>
+      </c>
+      <c r="G21" s="34">
+        <v>3</v>
+      </c>
+      <c r="I21" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="J21" s="47" t="s">
+      <c r="J21" s="39" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4723,28 +6392,28 @@
       <c r="A22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="40">
-        <v>1</v>
-      </c>
-      <c r="C22" s="40">
-        <v>1</v>
-      </c>
-      <c r="D22" s="40">
-        <v>1</v>
-      </c>
-      <c r="E22" s="40">
-        <v>1</v>
-      </c>
-      <c r="F22" s="40">
-        <v>1</v>
-      </c>
-      <c r="G22" s="40">
-        <v>1</v>
-      </c>
-      <c r="I22" s="20" t="s">
+      <c r="B22" s="34">
+        <v>1</v>
+      </c>
+      <c r="C22" s="34">
+        <v>1</v>
+      </c>
+      <c r="D22" s="34">
+        <v>1</v>
+      </c>
+      <c r="E22" s="34">
+        <v>1</v>
+      </c>
+      <c r="F22" s="34">
+        <v>1</v>
+      </c>
+      <c r="G22" s="34">
+        <v>1</v>
+      </c>
+      <c r="I22" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="J22" s="40">
+      <c r="J22" s="34">
         <v>1</v>
       </c>
     </row>
@@ -4752,28 +6421,28 @@
       <c r="A23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="41">
-        <v>1</v>
-      </c>
-      <c r="C23" s="41">
-        <v>1</v>
-      </c>
-      <c r="D23" s="41">
-        <v>1</v>
-      </c>
-      <c r="E23" s="41">
-        <v>1</v>
-      </c>
-      <c r="F23" s="41">
-        <v>1</v>
-      </c>
-      <c r="G23" s="41">
-        <v>2</v>
-      </c>
-      <c r="I23" s="20" t="s">
+      <c r="B23" s="35">
+        <v>1</v>
+      </c>
+      <c r="C23" s="35">
+        <v>1</v>
+      </c>
+      <c r="D23" s="35">
+        <v>1</v>
+      </c>
+      <c r="E23" s="35">
+        <v>1</v>
+      </c>
+      <c r="F23" s="35">
+        <v>1</v>
+      </c>
+      <c r="G23" s="35">
+        <v>2</v>
+      </c>
+      <c r="I23" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="J23" s="40">
+      <c r="J23" s="34">
         <v>2</v>
       </c>
     </row>
@@ -4781,28 +6450,28 @@
       <c r="A24" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="40">
-        <v>2</v>
-      </c>
-      <c r="C24" s="40">
-        <v>2</v>
-      </c>
-      <c r="D24" s="40">
-        <v>2</v>
-      </c>
-      <c r="E24" s="40">
-        <v>1</v>
-      </c>
-      <c r="F24" s="40">
-        <v>2</v>
-      </c>
-      <c r="G24" s="40">
-        <v>2</v>
-      </c>
-      <c r="I24" s="20" t="s">
+      <c r="B24" s="34">
+        <v>2</v>
+      </c>
+      <c r="C24" s="34">
+        <v>2</v>
+      </c>
+      <c r="D24" s="34">
+        <v>2</v>
+      </c>
+      <c r="E24" s="34">
+        <v>1</v>
+      </c>
+      <c r="F24" s="34">
+        <v>2</v>
+      </c>
+      <c r="G24" s="34">
+        <v>2</v>
+      </c>
+      <c r="I24" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="J24" s="40">
+      <c r="J24" s="34">
         <v>3</v>
       </c>
     </row>
@@ -4810,56 +6479,56 @@
       <c r="A25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="40">
-        <v>2</v>
-      </c>
-      <c r="C25" s="40">
-        <v>1</v>
-      </c>
-      <c r="D25" s="40">
-        <v>1</v>
-      </c>
-      <c r="E25" s="40">
-        <v>1</v>
-      </c>
-      <c r="F25" s="40">
-        <v>1</v>
-      </c>
-      <c r="G25" s="40">
+      <c r="B25" s="34">
+        <v>2</v>
+      </c>
+      <c r="C25" s="34">
+        <v>1</v>
+      </c>
+      <c r="D25" s="34">
+        <v>1</v>
+      </c>
+      <c r="E25" s="34">
+        <v>1</v>
+      </c>
+      <c r="F25" s="34">
+        <v>1</v>
+      </c>
+      <c r="G25" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="42" t="s">
+      <c r="D29" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="42" t="s">
+      <c r="E29" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="F29" s="42" t="s">
+      <c r="F29" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="G29" s="42" t="s">
+      <c r="G29" s="36" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4867,27 +6536,27 @@
       <c r="A30" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="56">
+      <c r="B30" s="42">
         <f>1/$J4/(1/B17)</f>
         <v>0.75</v>
       </c>
-      <c r="C30" s="56">
+      <c r="C30" s="42">
         <f t="shared" ref="C30:G30" si="9">1/$J4/(1/C17)</f>
         <v>0.75</v>
       </c>
-      <c r="D30" s="56">
+      <c r="D30" s="42">
         <f t="shared" si="9"/>
         <v>0.75</v>
       </c>
-      <c r="E30" s="56">
+      <c r="E30" s="42">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="F30" s="56">
+      <c r="F30" s="42">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="G30" s="56">
+      <c r="G30" s="42">
         <f t="shared" si="9"/>
         <v>0.75</v>
       </c>
@@ -4896,27 +6565,27 @@
       <c r="A31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="56">
+      <c r="B31" s="42">
         <f t="shared" ref="B31:G31" si="10">1/$J5/(1/B18)</f>
         <v>1</v>
       </c>
-      <c r="C31" s="56">
+      <c r="C31" s="42">
         <f t="shared" si="10"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="D31" s="56">
+      <c r="D31" s="42">
         <f t="shared" si="10"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E31" s="56">
+      <c r="E31" s="42">
         <f t="shared" si="10"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="F31" s="56">
+      <c r="F31" s="42">
         <f t="shared" si="10"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G31" s="56">
+      <c r="G31" s="42">
         <f t="shared" si="10"/>
         <v>0.66666666666666663</v>
       </c>
@@ -4925,27 +6594,27 @@
       <c r="A32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="56">
+      <c r="B32" s="42">
         <f t="shared" ref="B32:G32" si="11">1/$J6/(1/B19)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="C32" s="56">
+      <c r="C32" s="42">
         <f t="shared" si="11"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="D32" s="56">
+      <c r="D32" s="42">
         <f t="shared" si="11"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E32" s="56">
+      <c r="E32" s="42">
         <f t="shared" si="11"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="F32" s="56">
+      <c r="F32" s="42">
         <f t="shared" si="11"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G32" s="56">
+      <c r="G32" s="42">
         <f t="shared" si="11"/>
         <v>0.66666666666666663</v>
       </c>
@@ -4954,27 +6623,27 @@
       <c r="A33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="56">
+      <c r="B33" s="42">
         <f t="shared" ref="B33:G33" si="12">1/$J7/(1/B20)</f>
         <v>0.5</v>
       </c>
-      <c r="C33" s="56">
+      <c r="C33" s="42">
         <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
-      <c r="D33" s="56">
+      <c r="D33" s="42">
         <f t="shared" si="12"/>
         <v>0.75</v>
       </c>
-      <c r="E33" s="56">
+      <c r="E33" s="42">
         <f t="shared" si="12"/>
         <v>0.25</v>
       </c>
-      <c r="F33" s="56">
+      <c r="F33" s="42">
         <f t="shared" si="12"/>
         <v>0.25</v>
       </c>
-      <c r="G33" s="56">
+      <c r="G33" s="42">
         <f t="shared" si="12"/>
         <v>0.25</v>
       </c>
@@ -4983,27 +6652,27 @@
       <c r="A34" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="56">
+      <c r="B34" s="42">
         <f t="shared" ref="B34:G34" si="13">1/$J8/(1/B21)</f>
         <v>0.8</v>
       </c>
-      <c r="C34" s="56">
+      <c r="C34" s="42">
         <f t="shared" si="13"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="D34" s="56">
+      <c r="D34" s="42">
         <f t="shared" si="13"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="E34" s="56">
+      <c r="E34" s="42">
         <f t="shared" si="13"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="F34" s="56">
+      <c r="F34" s="42">
         <f t="shared" si="13"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="G34" s="56">
+      <c r="G34" s="42">
         <f t="shared" si="13"/>
         <v>0.60000000000000009</v>
       </c>
@@ -5012,27 +6681,27 @@
       <c r="A35" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="56">
+      <c r="B35" s="42">
         <f t="shared" ref="B35:G35" si="14">1/$J9/(1/B22)</f>
         <v>0.5</v>
       </c>
-      <c r="C35" s="56">
+      <c r="C35" s="42">
         <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
-      <c r="D35" s="56">
+      <c r="D35" s="42">
         <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
-      <c r="E35" s="56">
+      <c r="E35" s="42">
         <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
-      <c r="F35" s="56">
+      <c r="F35" s="42">
         <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
-      <c r="G35" s="56">
+      <c r="G35" s="42">
         <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
@@ -5041,27 +6710,27 @@
       <c r="A36" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="56">
+      <c r="B36" s="42">
         <f t="shared" ref="B36:G36" si="15">1/$J10/(1/B23)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="C36" s="56">
+      <c r="C36" s="42">
         <f t="shared" si="15"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D36" s="56">
+      <c r="D36" s="42">
         <f t="shared" si="15"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E36" s="56">
+      <c r="E36" s="42">
         <f t="shared" si="15"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F36" s="56">
+      <c r="F36" s="42">
         <f t="shared" si="15"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G36" s="56">
+      <c r="G36" s="42">
         <f t="shared" si="15"/>
         <v>0.66666666666666663</v>
       </c>
@@ -5070,27 +6739,27 @@
       <c r="A37" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="56">
+      <c r="B37" s="42">
         <f t="shared" ref="B37:G37" si="16">1/$J11/(1/B24)</f>
         <v>0.5</v>
       </c>
-      <c r="C37" s="56">
+      <c r="C37" s="42">
         <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
-      <c r="D37" s="56">
+      <c r="D37" s="42">
         <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
-      <c r="E37" s="56">
+      <c r="E37" s="42">
         <f t="shared" si="16"/>
         <v>0.25</v>
       </c>
-      <c r="F37" s="56">
+      <c r="F37" s="42">
         <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
-      <c r="G37" s="56">
+      <c r="G37" s="42">
         <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
@@ -5099,27 +6768,27 @@
       <c r="A38" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="56">
+      <c r="B38" s="42">
         <f t="shared" ref="B38:G38" si="17">1/$J12/(1/B25)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="C38" s="56">
+      <c r="C38" s="42">
         <f t="shared" si="17"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D38" s="56">
+      <c r="D38" s="42">
         <f t="shared" si="17"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E38" s="56">
+      <c r="E38" s="42">
         <f t="shared" si="17"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F38" s="56">
+      <c r="F38" s="42">
         <f t="shared" si="17"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G38" s="56">
+      <c r="G38" s="42">
         <f t="shared" si="17"/>
         <v>0.33333333333333331</v>
       </c>
@@ -5128,22 +6797,22 @@
       <c r="A41" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B41" s="42" t="s">
+      <c r="B41" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="42" t="s">
+      <c r="C41" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="D41" s="42" t="s">
+      <c r="D41" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="E41" s="42" t="s">
+      <c r="E41" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="F41" s="42" t="s">
+      <c r="F41" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="G41" s="42" t="s">
+      <c r="G41" s="36" t="s">
         <v>65</v>
       </c>
     </row>
@@ -5151,27 +6820,27 @@
       <c r="A42" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="56">
+      <c r="B42" s="42">
         <f>B30*Y4</f>
         <v>0.5</v>
       </c>
-      <c r="C42" s="56">
+      <c r="C42" s="42">
         <f>C30*Y4</f>
         <v>0.5</v>
       </c>
-      <c r="D42" s="56">
+      <c r="D42" s="42">
         <f>D30*Y4</f>
         <v>0.5</v>
       </c>
-      <c r="E42" s="56">
+      <c r="E42" s="42">
         <f>E30*Y4</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="F42" s="56">
+      <c r="F42" s="42">
         <f>F30*Y4</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G42" s="56">
+      <c r="G42" s="42">
         <f>G30*Y4</f>
         <v>0.5</v>
       </c>
@@ -5180,27 +6849,27 @@
       <c r="A43" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="56">
+      <c r="B43" s="42">
         <f t="shared" ref="B43:B50" si="18">B31*Y5</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="C43" s="56">
+      <c r="C43" s="42">
         <f t="shared" ref="C43:C50" si="19">C31*Y5</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="D43" s="56">
+      <c r="D43" s="42">
         <f t="shared" ref="D43:D50" si="20">D31*Y5</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="E43" s="56">
+      <c r="E43" s="42">
         <f t="shared" ref="E43:E50" si="21">E31*Y5</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="F43" s="56">
+      <c r="F43" s="42">
         <f t="shared" ref="F43:F50" si="22">F31*Y5</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="G43" s="56">
+      <c r="G43" s="42">
         <f t="shared" ref="G43:G50" si="23">G31*Y5</f>
         <v>0.44444444444444442</v>
       </c>
@@ -5209,27 +6878,27 @@
       <c r="A44" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="56">
+      <c r="B44" s="42">
         <f t="shared" si="18"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="C44" s="56">
+      <c r="C44" s="42">
         <f t="shared" si="19"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="D44" s="56">
+      <c r="D44" s="42">
         <f t="shared" si="20"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="E44" s="56">
+      <c r="E44" s="42">
         <f t="shared" si="21"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="F44" s="56">
+      <c r="F44" s="42">
         <f t="shared" si="22"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="G44" s="56">
+      <c r="G44" s="42">
         <f t="shared" si="23"/>
         <v>0.22222222222222221</v>
       </c>
@@ -5238,27 +6907,27 @@
       <c r="A45" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="56">
+      <c r="B45" s="42">
         <f t="shared" si="18"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="C45" s="56">
+      <c r="C45" s="42">
         <f t="shared" si="19"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D45" s="56">
+      <c r="D45" s="42">
         <f t="shared" si="20"/>
         <v>0.25</v>
       </c>
-      <c r="E45" s="56">
+      <c r="E45" s="42">
         <f t="shared" si="21"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F45" s="56">
+      <c r="F45" s="42">
         <f t="shared" si="22"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G45" s="56">
+      <c r="G45" s="42">
         <f t="shared" si="23"/>
         <v>8.3333333333333329E-2</v>
       </c>
@@ -5267,27 +6936,27 @@
       <c r="A46" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B46" s="56">
+      <c r="B46" s="42">
         <f t="shared" si="18"/>
         <v>0.53333333333333333</v>
       </c>
-      <c r="C46" s="56">
+      <c r="C46" s="42">
         <f t="shared" si="19"/>
         <v>0.4</v>
       </c>
-      <c r="D46" s="56">
+      <c r="D46" s="42">
         <f t="shared" si="20"/>
         <v>0.4</v>
       </c>
-      <c r="E46" s="56">
+      <c r="E46" s="42">
         <f t="shared" si="21"/>
         <v>0.4</v>
       </c>
-      <c r="F46" s="56">
+      <c r="F46" s="42">
         <f t="shared" si="22"/>
         <v>0.4</v>
       </c>
-      <c r="G46" s="56">
+      <c r="G46" s="42">
         <f t="shared" si="23"/>
         <v>0.4</v>
       </c>
@@ -5296,27 +6965,27 @@
       <c r="A47" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B47" s="56">
+      <c r="B47" s="42">
         <f t="shared" si="18"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="C47" s="56">
+      <c r="C47" s="42">
         <f t="shared" si="19"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D47" s="56">
+      <c r="D47" s="42">
         <f t="shared" si="20"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E47" s="56">
+      <c r="E47" s="42">
         <f t="shared" si="21"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F47" s="56">
+      <c r="F47" s="42">
         <f t="shared" si="22"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G47" s="56">
+      <c r="G47" s="42">
         <f t="shared" si="23"/>
         <v>0.33333333333333331</v>
       </c>
@@ -5325,27 +6994,27 @@
       <c r="A48" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="56">
+      <c r="B48" s="42">
         <f t="shared" si="18"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="C48" s="56">
+      <c r="C48" s="42">
         <f t="shared" si="19"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="D48" s="56">
+      <c r="D48" s="42">
         <f t="shared" si="20"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="E48" s="56">
+      <c r="E48" s="42">
         <f t="shared" si="21"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="F48" s="56">
+      <c r="F48" s="42">
         <f t="shared" si="22"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="G48" s="56">
+      <c r="G48" s="42">
         <f t="shared" si="23"/>
         <v>0.44444444444444442</v>
       </c>
@@ -5354,27 +7023,27 @@
       <c r="A49" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="56">
+      <c r="B49" s="42">
         <f t="shared" si="18"/>
         <v>0.5</v>
       </c>
-      <c r="C49" s="56">
+      <c r="C49" s="42">
         <f t="shared" si="19"/>
         <v>0.5</v>
       </c>
-      <c r="D49" s="56">
+      <c r="D49" s="42">
         <f t="shared" si="20"/>
         <v>0.5</v>
       </c>
-      <c r="E49" s="56">
+      <c r="E49" s="42">
         <f t="shared" si="21"/>
         <v>0.25</v>
       </c>
-      <c r="F49" s="56">
+      <c r="F49" s="42">
         <f t="shared" si="22"/>
         <v>0.5</v>
       </c>
-      <c r="G49" s="56">
+      <c r="G49" s="42">
         <f t="shared" si="23"/>
         <v>0.5</v>
       </c>
@@ -5383,27 +7052,27 @@
       <c r="A50" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="56">
+      <c r="B50" s="42">
         <f t="shared" si="18"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="C50" s="56">
+      <c r="C50" s="42">
         <f t="shared" si="19"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="D50" s="56">
+      <c r="D50" s="42">
         <f t="shared" si="20"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="E50" s="56">
+      <c r="E50" s="42">
         <f t="shared" si="21"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="F50" s="56">
+      <c r="F50" s="42">
         <f t="shared" si="22"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="G50" s="56">
+      <c r="G50" s="42">
         <f t="shared" si="23"/>
         <v>0.22222222222222221</v>
       </c>
@@ -5441,7 +7110,7 @@
       <c r="A52" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B52" s="30">
+      <c r="B52" s="24">
         <f>RANK(B51,$B51:$G51,0)</f>
         <v>1</v>
       </c>
@@ -5470,22 +7139,22 @@
       <c r="A55" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B55" s="42" t="s">
+      <c r="B55" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="42" t="s">
+      <c r="C55" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="D55" s="42" t="s">
+      <c r="D55" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="E55" s="42" t="s">
+      <c r="E55" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="F55" s="42" t="s">
+      <c r="F55" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="G55" s="42" t="s">
+      <c r="G55" s="36" t="s">
         <v>65</v>
       </c>
     </row>
@@ -5493,27 +7162,27 @@
       <c r="A56" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="56">
+      <c r="B56" s="42">
         <f>B30*Z4</f>
         <v>0.75</v>
       </c>
-      <c r="C56" s="56">
+      <c r="C56" s="42">
         <f>C30*Z4</f>
         <v>0.75</v>
       </c>
-      <c r="D56" s="56">
+      <c r="D56" s="42">
         <f>D30*Z4</f>
         <v>0.75</v>
       </c>
-      <c r="E56" s="56">
+      <c r="E56" s="42">
         <f>E30*Z4</f>
         <v>1</v>
       </c>
-      <c r="F56" s="56">
+      <c r="F56" s="42">
         <f>F30*Z4</f>
         <v>1</v>
       </c>
-      <c r="G56" s="56">
+      <c r="G56" s="42">
         <f>G30*Z4</f>
         <v>0.75</v>
       </c>
@@ -5522,27 +7191,27 @@
       <c r="A57" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B57" s="56">
+      <c r="B57" s="42">
         <f t="shared" ref="B57:B64" si="26">B31*Z5</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="C57" s="56">
+      <c r="C57" s="42">
         <f t="shared" ref="C57:C64" si="27">C31*Z5</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="D57" s="56">
+      <c r="D57" s="42">
         <f t="shared" ref="D57:D64" si="28">D31*Z5</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="E57" s="56">
+      <c r="E57" s="42">
         <f t="shared" ref="E57:E64" si="29">E31*Z5</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="F57" s="56">
+      <c r="F57" s="42">
         <f t="shared" ref="F57:F64" si="30">F31*Z5</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="G57" s="56">
+      <c r="G57" s="42">
         <f t="shared" ref="G57:G64" si="31">G31*Z5</f>
         <v>0.44444444444444442</v>
       </c>
@@ -5551,27 +7220,27 @@
       <c r="A58" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B58" s="56">
+      <c r="B58" s="42">
         <f t="shared" si="26"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="C58" s="56">
+      <c r="C58" s="42">
         <f t="shared" si="27"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="D58" s="56">
+      <c r="D58" s="42">
         <f t="shared" si="28"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E58" s="56">
+      <c r="E58" s="42">
         <f t="shared" si="29"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="F58" s="56">
+      <c r="F58" s="42">
         <f t="shared" si="30"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G58" s="56">
+      <c r="G58" s="42">
         <f t="shared" si="31"/>
         <v>0.66666666666666663</v>
       </c>
@@ -5580,27 +7249,27 @@
       <c r="A59" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B59" s="56">
+      <c r="B59" s="42">
         <f t="shared" si="26"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="C59" s="56">
+      <c r="C59" s="42">
         <f t="shared" si="27"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D59" s="56">
+      <c r="D59" s="42">
         <f t="shared" si="28"/>
         <v>0.5</v>
       </c>
-      <c r="E59" s="56">
+      <c r="E59" s="42">
         <f t="shared" si="29"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="F59" s="56">
+      <c r="F59" s="42">
         <f t="shared" si="30"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G59" s="56">
+      <c r="G59" s="42">
         <f t="shared" si="31"/>
         <v>0.16666666666666666</v>
       </c>
@@ -5609,27 +7278,27 @@
       <c r="A60" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B60" s="56">
+      <c r="B60" s="42">
         <f t="shared" si="26"/>
         <v>0.53333333333333333</v>
       </c>
-      <c r="C60" s="56">
+      <c r="C60" s="42">
         <f t="shared" si="27"/>
         <v>0.4</v>
       </c>
-      <c r="D60" s="56">
+      <c r="D60" s="42">
         <f t="shared" si="28"/>
         <v>0.4</v>
       </c>
-      <c r="E60" s="56">
+      <c r="E60" s="42">
         <f t="shared" si="29"/>
         <v>0.4</v>
       </c>
-      <c r="F60" s="56">
+      <c r="F60" s="42">
         <f t="shared" si="30"/>
         <v>0.4</v>
       </c>
-      <c r="G60" s="56">
+      <c r="G60" s="42">
         <f t="shared" si="31"/>
         <v>0.4</v>
       </c>
@@ -5638,27 +7307,27 @@
       <c r="A61" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B61" s="56">
+      <c r="B61" s="42">
         <f>B35*Z9</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="C61" s="56">
+      <c r="C61" s="42">
         <f t="shared" si="27"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D61" s="56">
+      <c r="D61" s="42">
         <f t="shared" si="28"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="E61" s="56">
+      <c r="E61" s="42">
         <f t="shared" si="29"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="F61" s="56">
+      <c r="F61" s="42">
         <f t="shared" si="30"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G61" s="56">
+      <c r="G61" s="42">
         <f t="shared" si="31"/>
         <v>0.16666666666666666</v>
       </c>
@@ -5667,27 +7336,27 @@
       <c r="A62" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B62" s="56">
+      <c r="B62" s="42">
         <f t="shared" si="26"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="C62" s="56">
+      <c r="C62" s="42">
         <f t="shared" si="27"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="D62" s="56">
+      <c r="D62" s="42">
         <f t="shared" si="28"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="E62" s="56">
+      <c r="E62" s="42">
         <f t="shared" si="29"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="F62" s="56">
+      <c r="F62" s="42">
         <f t="shared" si="30"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="G62" s="56">
+      <c r="G62" s="42">
         <f t="shared" si="31"/>
         <v>0.44444444444444442</v>
       </c>
@@ -5696,27 +7365,27 @@
       <c r="A63" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="56">
+      <c r="B63" s="42">
         <f t="shared" si="26"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="C63" s="56">
+      <c r="C63" s="42">
         <f t="shared" si="27"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D63" s="56">
+      <c r="D63" s="42">
         <f t="shared" si="28"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E63" s="56">
+      <c r="E63" s="42">
         <f t="shared" si="29"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="F63" s="56">
+      <c r="F63" s="42">
         <f t="shared" si="30"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G63" s="56">
+      <c r="G63" s="42">
         <f t="shared" si="31"/>
         <v>0.33333333333333331</v>
       </c>
@@ -5725,27 +7394,27 @@
       <c r="A64" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B64" s="56">
+      <c r="B64" s="42">
         <f t="shared" si="26"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="C64" s="56">
+      <c r="C64" s="42">
         <f t="shared" si="27"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="D64" s="56">
+      <c r="D64" s="42">
         <f t="shared" si="28"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="E64" s="56">
+      <c r="E64" s="42">
         <f t="shared" si="29"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="F64" s="56">
+      <c r="F64" s="42">
         <f t="shared" si="30"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="G64" s="56">
+      <c r="G64" s="42">
         <f t="shared" si="31"/>
         <v>0.22222222222222221</v>
       </c>
@@ -5783,7 +7452,7 @@
       <c r="A66" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B66" s="30">
+      <c r="B66" s="24">
         <f>RANK(B65,$B65:$G65,0)</f>
         <v>1</v>
       </c>
@@ -5812,22 +7481,22 @@
       <c r="A68" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B68" s="42" t="s">
+      <c r="B68" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="C68" s="42" t="s">
+      <c r="C68" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="D68" s="42" t="s">
+      <c r="D68" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="E68" s="42" t="s">
+      <c r="E68" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="F68" s="42" t="s">
+      <c r="F68" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="G68" s="42" t="s">
+      <c r="G68" s="36" t="s">
         <v>65</v>
       </c>
     </row>
@@ -5835,27 +7504,27 @@
       <c r="A69" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="56">
+      <c r="B69" s="42">
         <f>B30*AA4</f>
         <v>0.25</v>
       </c>
-      <c r="C69" s="56">
+      <c r="C69" s="42">
         <f>C30*AA4</f>
         <v>0.25</v>
       </c>
-      <c r="D69" s="56">
+      <c r="D69" s="42">
         <f>D30*AA4</f>
         <v>0.25</v>
       </c>
-      <c r="E69" s="56">
+      <c r="E69" s="42">
         <f>E30*AA4</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F69" s="56">
+      <c r="F69" s="42">
         <f>F30*AA4</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G69" s="56">
+      <c r="G69" s="42">
         <f>G30*AA4</f>
         <v>0.25</v>
       </c>
@@ -5864,27 +7533,27 @@
       <c r="A70" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="56">
+      <c r="B70" s="42">
         <f t="shared" ref="B70:B77" si="34">B31*AA5</f>
         <v>1</v>
       </c>
-      <c r="C70" s="56">
+      <c r="C70" s="42">
         <f t="shared" ref="C70:C77" si="35">C31*AA5</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="D70" s="56">
+      <c r="D70" s="42">
         <f t="shared" ref="D70:D77" si="36">D31*AA5</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E70" s="56">
+      <c r="E70" s="42">
         <f t="shared" ref="E70:E77" si="37">E31*AA5</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="F70" s="56">
+      <c r="F70" s="42">
         <f t="shared" ref="F70:F77" si="38">F31*AA5</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G70" s="56">
+      <c r="G70" s="42">
         <f t="shared" ref="G70:G77" si="39">G31*AA5</f>
         <v>0.66666666666666663</v>
       </c>
@@ -5893,27 +7562,27 @@
       <c r="A71" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B71" s="56">
+      <c r="B71" s="42">
         <f t="shared" si="34"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="C71" s="56">
+      <c r="C71" s="42">
         <f t="shared" si="35"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="D71" s="56">
+      <c r="D71" s="42">
         <f t="shared" si="36"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E71" s="56">
+      <c r="E71" s="42">
         <f t="shared" si="37"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="F71" s="56">
+      <c r="F71" s="42">
         <f t="shared" si="38"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G71" s="56">
+      <c r="G71" s="42">
         <f t="shared" si="39"/>
         <v>0.66666666666666663</v>
       </c>
@@ -5922,27 +7591,27 @@
       <c r="A72" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B72" s="56">
+      <c r="B72" s="42">
         <f t="shared" si="34"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="C72" s="56">
+      <c r="C72" s="42">
         <f t="shared" si="35"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D72" s="56">
+      <c r="D72" s="42">
         <f t="shared" si="36"/>
         <v>0.5</v>
       </c>
-      <c r="E72" s="56">
+      <c r="E72" s="42">
         <f t="shared" si="37"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="F72" s="56">
+      <c r="F72" s="42">
         <f t="shared" si="38"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G72" s="56">
+      <c r="G72" s="42">
         <f t="shared" si="39"/>
         <v>0.16666666666666666</v>
       </c>
@@ -5951,27 +7620,27 @@
       <c r="A73" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B73" s="56">
+      <c r="B73" s="42">
         <f t="shared" si="34"/>
         <v>0.53333333333333333</v>
       </c>
-      <c r="C73" s="56">
+      <c r="C73" s="42">
         <f t="shared" si="35"/>
         <v>0.4</v>
       </c>
-      <c r="D73" s="56">
+      <c r="D73" s="42">
         <f t="shared" si="36"/>
         <v>0.4</v>
       </c>
-      <c r="E73" s="56">
+      <c r="E73" s="42">
         <f t="shared" si="37"/>
         <v>0.4</v>
       </c>
-      <c r="F73" s="56">
+      <c r="F73" s="42">
         <f t="shared" si="38"/>
         <v>0.4</v>
       </c>
-      <c r="G73" s="56">
+      <c r="G73" s="42">
         <f t="shared" si="39"/>
         <v>0.4</v>
       </c>
@@ -5980,27 +7649,27 @@
       <c r="A74" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B74" s="56">
+      <c r="B74" s="42">
         <f t="shared" si="34"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="C74" s="56">
+      <c r="C74" s="42">
         <f t="shared" si="35"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D74" s="56">
+      <c r="D74" s="42">
         <f t="shared" si="36"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E74" s="56">
+      <c r="E74" s="42">
         <f t="shared" si="37"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F74" s="56">
+      <c r="F74" s="42">
         <f t="shared" si="38"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G74" s="56">
+      <c r="G74" s="42">
         <f t="shared" si="39"/>
         <v>0.33333333333333331</v>
       </c>
@@ -6009,27 +7678,27 @@
       <c r="A75" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B75" s="56">
+      <c r="B75" s="42">
         <f t="shared" si="34"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="C75" s="56">
+      <c r="C75" s="42">
         <f t="shared" si="35"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="D75" s="56">
+      <c r="D75" s="42">
         <f t="shared" si="36"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="E75" s="56">
+      <c r="E75" s="42">
         <f t="shared" si="37"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="F75" s="56">
+      <c r="F75" s="42">
         <f t="shared" si="38"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="G75" s="56">
+      <c r="G75" s="42">
         <f t="shared" si="39"/>
         <v>0.44444444444444442</v>
       </c>
@@ -6038,27 +7707,27 @@
       <c r="A76" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B76" s="56">
+      <c r="B76" s="42">
         <f t="shared" si="34"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="C76" s="56">
+      <c r="C76" s="42">
         <f t="shared" si="35"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D76" s="56">
+      <c r="D76" s="42">
         <f t="shared" si="36"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E76" s="56">
+      <c r="E76" s="42">
         <f t="shared" si="37"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="F76" s="56">
+      <c r="F76" s="42">
         <f t="shared" si="38"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G76" s="56">
+      <c r="G76" s="42">
         <f t="shared" si="39"/>
         <v>0.33333333333333331</v>
       </c>
@@ -6067,27 +7736,27 @@
       <c r="A77" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B77" s="56">
+      <c r="B77" s="42">
         <f t="shared" si="34"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="C77" s="56">
+      <c r="C77" s="42">
         <f t="shared" si="35"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="D77" s="56">
+      <c r="D77" s="42">
         <f t="shared" si="36"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="E77" s="56">
+      <c r="E77" s="42">
         <f t="shared" si="37"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="F77" s="56">
+      <c r="F77" s="42">
         <f t="shared" si="38"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="G77" s="56">
+      <c r="G77" s="42">
         <f t="shared" si="39"/>
         <v>0.22222222222222221</v>
       </c>
@@ -6125,7 +7794,7 @@
       <c r="A79" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B79" s="30">
+      <c r="B79" s="24">
         <f>RANK(B78,$B78:$G78,0)</f>
         <v>1</v>
       </c>
@@ -6154,22 +7823,22 @@
       <c r="A81" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B81" s="42" t="s">
+      <c r="B81" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="C81" s="42" t="s">
+      <c r="C81" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="D81" s="42" t="s">
+      <c r="D81" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="E81" s="42" t="s">
+      <c r="E81" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="F81" s="42" t="s">
+      <c r="F81" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="G81" s="42" t="s">
+      <c r="G81" s="36" t="s">
         <v>65</v>
       </c>
     </row>
@@ -6177,27 +7846,27 @@
       <c r="A82" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B82" s="56">
+      <c r="B82" s="42">
         <f>B30*$AB4</f>
         <v>0.5</v>
       </c>
-      <c r="C82" s="56">
+      <c r="C82" s="42">
         <f>C30*$AB4</f>
         <v>0.5</v>
       </c>
-      <c r="D82" s="56">
+      <c r="D82" s="42">
         <f t="shared" ref="D82:G82" si="42">D30*$AB4</f>
         <v>0.5</v>
       </c>
-      <c r="E82" s="56">
+      <c r="E82" s="42">
         <f t="shared" si="42"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="F82" s="56">
+      <c r="F82" s="42">
         <f t="shared" si="42"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G82" s="56">
+      <c r="G82" s="42">
         <f t="shared" si="42"/>
         <v>0.5</v>
       </c>
@@ -6206,27 +7875,27 @@
       <c r="A83" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B83" s="56">
+      <c r="B83" s="42">
         <f t="shared" ref="B83:B90" si="43">B31*AB5</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="C83" s="56">
+      <c r="C83" s="42">
         <f t="shared" ref="C83:G90" si="44">C31*$AB5</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="D83" s="56">
+      <c r="D83" s="42">
         <f t="shared" si="44"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="E83" s="56">
+      <c r="E83" s="42">
         <f t="shared" si="44"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="F83" s="56">
+      <c r="F83" s="42">
         <f t="shared" si="44"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="G83" s="56">
+      <c r="G83" s="42">
         <f t="shared" si="44"/>
         <v>0.44444444444444442</v>
       </c>
@@ -6235,27 +7904,27 @@
       <c r="A84" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B84" s="56">
+      <c r="B84" s="42">
         <f t="shared" si="43"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="C84" s="56">
+      <c r="C84" s="42">
         <f t="shared" si="44"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="D84" s="56">
+      <c r="D84" s="42">
         <f t="shared" si="44"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="E84" s="56">
+      <c r="E84" s="42">
         <f t="shared" si="44"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="F84" s="56">
+      <c r="F84" s="42">
         <f t="shared" si="44"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="G84" s="56">
+      <c r="G84" s="42">
         <f t="shared" si="44"/>
         <v>0.44444444444444442</v>
       </c>
@@ -6264,27 +7933,27 @@
       <c r="A85" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="56">
+      <c r="B85" s="42">
         <f t="shared" si="43"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="C85" s="56">
+      <c r="C85" s="42">
         <f t="shared" si="44"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D85" s="56">
+      <c r="D85" s="42">
         <f t="shared" si="44"/>
         <v>0.25</v>
       </c>
-      <c r="E85" s="56">
+      <c r="E85" s="42">
         <f t="shared" si="44"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F85" s="56">
+      <c r="F85" s="42">
         <f t="shared" si="44"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G85" s="56">
+      <c r="G85" s="42">
         <f t="shared" si="44"/>
         <v>8.3333333333333329E-2</v>
       </c>
@@ -6293,27 +7962,27 @@
       <c r="A86" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B86" s="56">
+      <c r="B86" s="42">
         <f t="shared" si="43"/>
         <v>0.53333333333333333</v>
       </c>
-      <c r="C86" s="56">
+      <c r="C86" s="42">
         <f t="shared" si="44"/>
         <v>0.4</v>
       </c>
-      <c r="D86" s="56">
+      <c r="D86" s="42">
         <f t="shared" si="44"/>
         <v>0.4</v>
       </c>
-      <c r="E86" s="56">
+      <c r="E86" s="42">
         <f t="shared" si="44"/>
         <v>0.4</v>
       </c>
-      <c r="F86" s="56">
+      <c r="F86" s="42">
         <f t="shared" si="44"/>
         <v>0.4</v>
       </c>
-      <c r="G86" s="56">
+      <c r="G86" s="42">
         <f t="shared" si="44"/>
         <v>0.4</v>
       </c>
@@ -6322,27 +7991,27 @@
       <c r="A87" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B87" s="56">
+      <c r="B87" s="42">
         <f t="shared" si="43"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="C87" s="56">
+      <c r="C87" s="42">
         <f t="shared" si="44"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D87" s="56">
+      <c r="D87" s="42">
         <f t="shared" si="44"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="E87" s="56">
+      <c r="E87" s="42">
         <f t="shared" si="44"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="F87" s="56">
+      <c r="F87" s="42">
         <f t="shared" si="44"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G87" s="56">
+      <c r="G87" s="42">
         <f t="shared" si="44"/>
         <v>0.16666666666666666</v>
       </c>
@@ -6351,27 +8020,27 @@
       <c r="A88" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B88" s="56">
+      <c r="B88" s="42">
         <f t="shared" si="43"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="C88" s="56">
+      <c r="C88" s="42">
         <f t="shared" si="44"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="D88" s="56">
+      <c r="D88" s="42">
         <f t="shared" si="44"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="E88" s="56">
+      <c r="E88" s="42">
         <f t="shared" si="44"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="F88" s="56">
+      <c r="F88" s="42">
         <f t="shared" si="44"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="G88" s="56">
+      <c r="G88" s="42">
         <f t="shared" si="44"/>
         <v>0.44444444444444442</v>
       </c>
@@ -6380,27 +8049,27 @@
       <c r="A89" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B89" s="56">
+      <c r="B89" s="42">
         <f t="shared" si="43"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="C89" s="56">
+      <c r="C89" s="42">
         <f t="shared" si="44"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D89" s="56">
+      <c r="D89" s="42">
         <f t="shared" si="44"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E89" s="56">
+      <c r="E89" s="42">
         <f t="shared" si="44"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="F89" s="56">
+      <c r="F89" s="42">
         <f t="shared" si="44"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G89" s="56">
+      <c r="G89" s="42">
         <f t="shared" si="44"/>
         <v>0.33333333333333331</v>
       </c>
@@ -6409,27 +8078,27 @@
       <c r="A90" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B90" s="56">
+      <c r="B90" s="42">
         <f t="shared" si="43"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="C90" s="56">
+      <c r="C90" s="42">
         <f t="shared" si="44"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="D90" s="56">
+      <c r="D90" s="42">
         <f t="shared" si="44"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="E90" s="56">
+      <c r="E90" s="42">
         <f t="shared" si="44"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="F90" s="56">
+      <c r="F90" s="42">
         <f t="shared" si="44"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="G90" s="56">
+      <c r="G90" s="42">
         <f t="shared" si="44"/>
         <v>0.22222222222222221</v>
       </c>
@@ -6467,7 +8136,7 @@
       <c r="A92" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B92" s="30">
+      <c r="B92" s="24">
         <f>RANK(B91,$B91:$G91,0)</f>
         <v>1</v>
       </c>
@@ -6496,22 +8165,22 @@
       <c r="A94" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B94" s="42" t="s">
+      <c r="B94" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="C94" s="42" t="s">
+      <c r="C94" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="D94" s="42" t="s">
+      <c r="D94" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="E94" s="42" t="s">
+      <c r="E94" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="F94" s="42" t="s">
+      <c r="F94" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="G94" s="42" t="s">
+      <c r="G94" s="36" t="s">
         <v>65</v>
       </c>
     </row>
@@ -6519,27 +8188,27 @@
       <c r="A95" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B95" s="56">
+      <c r="B95" s="42">
         <f>B30*$AC4</f>
         <v>0.5</v>
       </c>
-      <c r="C95" s="56">
+      <c r="C95" s="42">
         <f t="shared" ref="C95:G95" si="55">C30*$AC4</f>
         <v>0.5</v>
       </c>
-      <c r="D95" s="56">
+      <c r="D95" s="42">
         <f t="shared" si="55"/>
         <v>0.5</v>
       </c>
-      <c r="E95" s="56">
+      <c r="E95" s="42">
         <f t="shared" si="55"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="F95" s="56">
+      <c r="F95" s="42">
         <f t="shared" si="55"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G95" s="56">
+      <c r="G95" s="42">
         <f t="shared" si="55"/>
         <v>0.5</v>
       </c>
@@ -6548,27 +8217,27 @@
       <c r="A96" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B96" s="56">
+      <c r="B96" s="42">
         <f t="shared" ref="B96:G103" si="56">B31*$AC5</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="C96" s="56">
+      <c r="C96" s="42">
         <f t="shared" si="56"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="D96" s="56">
+      <c r="D96" s="42">
         <f t="shared" si="56"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="E96" s="56">
+      <c r="E96" s="42">
         <f t="shared" si="56"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="F96" s="56">
+      <c r="F96" s="42">
         <f t="shared" si="56"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="G96" s="56">
+      <c r="G96" s="42">
         <f t="shared" si="56"/>
         <v>0.44444444444444442</v>
       </c>
@@ -6577,27 +8246,27 @@
       <c r="A97" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B97" s="56">
+      <c r="B97" s="42">
         <f t="shared" si="56"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="C97" s="56">
+      <c r="C97" s="42">
         <f t="shared" si="56"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="D97" s="56">
+      <c r="D97" s="42">
         <f t="shared" si="56"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="E97" s="56">
+      <c r="E97" s="42">
         <f t="shared" si="56"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="F97" s="56">
+      <c r="F97" s="42">
         <f t="shared" si="56"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="G97" s="56">
+      <c r="G97" s="42">
         <f t="shared" si="56"/>
         <v>0.44444444444444442</v>
       </c>
@@ -6606,27 +8275,27 @@
       <c r="A98" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B98" s="56">
+      <c r="B98" s="42">
         <f t="shared" si="56"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="C98" s="56">
+      <c r="C98" s="42">
         <f t="shared" si="56"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D98" s="56">
+      <c r="D98" s="42">
         <f t="shared" si="56"/>
         <v>0.5</v>
       </c>
-      <c r="E98" s="56">
+      <c r="E98" s="42">
         <f t="shared" si="56"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="F98" s="56">
+      <c r="F98" s="42">
         <f t="shared" si="56"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G98" s="56">
+      <c r="G98" s="42">
         <f t="shared" si="56"/>
         <v>0.16666666666666666</v>
       </c>
@@ -6635,27 +8304,27 @@
       <c r="A99" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B99" s="56">
+      <c r="B99" s="42">
         <f t="shared" si="56"/>
         <v>0.53333333333333333</v>
       </c>
-      <c r="C99" s="56">
+      <c r="C99" s="42">
         <f t="shared" si="56"/>
         <v>0.4</v>
       </c>
-      <c r="D99" s="56">
+      <c r="D99" s="42">
         <f t="shared" si="56"/>
         <v>0.4</v>
       </c>
-      <c r="E99" s="56">
+      <c r="E99" s="42">
         <f t="shared" si="56"/>
         <v>0.4</v>
       </c>
-      <c r="F99" s="56">
+      <c r="F99" s="42">
         <f t="shared" si="56"/>
         <v>0.4</v>
       </c>
-      <c r="G99" s="56">
+      <c r="G99" s="42">
         <f t="shared" si="56"/>
         <v>0.4</v>
       </c>
@@ -6664,27 +8333,27 @@
       <c r="A100" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B100" s="56">
+      <c r="B100" s="42">
         <f t="shared" si="56"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="C100" s="56">
+      <c r="C100" s="42">
         <f t="shared" si="56"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D100" s="56">
+      <c r="D100" s="42">
         <f t="shared" si="56"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E100" s="56">
+      <c r="E100" s="42">
         <f t="shared" si="56"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F100" s="56">
+      <c r="F100" s="42">
         <f t="shared" si="56"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G100" s="56">
+      <c r="G100" s="42">
         <f t="shared" si="56"/>
         <v>0.33333333333333331</v>
       </c>
@@ -6693,27 +8362,27 @@
       <c r="A101" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B101" s="56">
+      <c r="B101" s="42">
         <f t="shared" si="56"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="C101" s="56">
+      <c r="C101" s="42">
         <f t="shared" si="56"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="D101" s="56">
+      <c r="D101" s="42">
         <f t="shared" si="56"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="E101" s="56">
+      <c r="E101" s="42">
         <f t="shared" si="56"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="F101" s="56">
+      <c r="F101" s="42">
         <f t="shared" si="56"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="G101" s="56">
+      <c r="G101" s="42">
         <f t="shared" si="56"/>
         <v>0.22222222222222221</v>
       </c>
@@ -6722,27 +8391,27 @@
       <c r="A102" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B102" s="56">
+      <c r="B102" s="42">
         <f t="shared" si="56"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="C102" s="56">
+      <c r="C102" s="42">
         <f t="shared" si="56"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D102" s="56">
+      <c r="D102" s="42">
         <f t="shared" si="56"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E102" s="56">
+      <c r="E102" s="42">
         <f t="shared" si="56"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="F102" s="56">
+      <c r="F102" s="42">
         <f t="shared" si="56"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G102" s="56">
+      <c r="G102" s="42">
         <f t="shared" si="56"/>
         <v>0.33333333333333331</v>
       </c>
@@ -6751,27 +8420,27 @@
       <c r="A103" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B103" s="56">
+      <c r="B103" s="42">
         <f t="shared" si="56"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="C103" s="56">
+      <c r="C103" s="42">
         <f t="shared" si="56"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="D103" s="56">
+      <c r="D103" s="42">
         <f t="shared" si="56"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="E103" s="56">
+      <c r="E103" s="42">
         <f t="shared" si="56"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="F103" s="56">
+      <c r="F103" s="42">
         <f t="shared" si="56"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="G103" s="56">
+      <c r="G103" s="42">
         <f t="shared" si="56"/>
         <v>0.1111111111111111</v>
       </c>
@@ -6809,7 +8478,7 @@
       <c r="A105" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B105" s="30">
+      <c r="B105" s="24">
         <f>RANK(B104,$B104:$G104,0)</f>
         <v>1</v>
       </c>
@@ -6847,8 +8516,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:AC51"/>
   <sheetViews>
     <sheetView topLeftCell="A36" workbookViewId="0">
@@ -6872,36 +8541,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:29">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="36" t="s">
         <v>74</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -6915,22 +8584,22 @@
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="33">
         <v>2500000</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="33">
         <v>2850000</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D4" s="33">
         <v>2600000</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="33">
         <v>2700000</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="33">
         <v>2300000</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="33">
         <v>2250000</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -6939,48 +8608,48 @@
       <c r="J4" s="7">
         <v>4</v>
       </c>
-      <c r="L4" s="53" t="s">
+      <c r="L4" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
-      <c r="W4" s="55" t="s">
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
+      <c r="W4" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="55"/>
-      <c r="AA4" s="55"/>
-      <c r="AB4" s="55"/>
-      <c r="AC4" s="55"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="53"/>
+      <c r="AC4" s="53"/>
     </row>
     <row r="5" spans="1:29">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="34" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -6999,37 +8668,37 @@
       <c r="P5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="52" t="s">
+      <c r="Q5" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="R5" s="52" t="s">
+      <c r="R5" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="52" t="s">
+      <c r="S5" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="T5" s="52" t="s">
+      <c r="T5" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="U5" s="52" t="s">
+      <c r="U5" s="41" t="s">
         <v>26</v>
       </c>
       <c r="X5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y5" s="52" t="s">
+      <c r="Y5" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="Z5" s="52" t="s">
+      <c r="Z5" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="AA5" s="52" t="s">
+      <c r="AA5" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="AB5" s="52" t="s">
+      <c r="AB5" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="AC5" s="52" t="s">
+      <c r="AC5" s="41" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7037,22 +8706,22 @@
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="34" t="s">
         <v>56</v>
       </c>
       <c r="I6" s="4" t="s">
@@ -7068,7 +8737,7 @@
         <v>27</v>
       </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="17" t="s">
+      <c r="O6" s="15" t="s">
         <v>177</v>
       </c>
       <c r="P6" s="4" t="s">
@@ -7089,7 +8758,7 @@
       <c r="U6" s="1">
         <v>3</v>
       </c>
-      <c r="W6" s="17" t="s">
+      <c r="W6" s="15" t="s">
         <v>177</v>
       </c>
       <c r="X6" s="4" t="s">
@@ -7120,22 +8789,22 @@
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="34">
         <v>11.6</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="34">
         <v>14</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="34">
         <v>14</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="34">
         <v>14</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="34">
         <v>11.6</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="34">
         <v>11.6</v>
       </c>
       <c r="I7" s="4" t="s">
@@ -7151,7 +8820,7 @@
         <v>28</v>
       </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="17" t="s">
+      <c r="O7" s="15" t="s">
         <v>178</v>
       </c>
       <c r="P7" s="4" t="s">
@@ -7172,7 +8841,7 @@
       <c r="U7" s="1">
         <v>3</v>
       </c>
-      <c r="W7" s="17" t="s">
+      <c r="W7" s="15" t="s">
         <v>178</v>
       </c>
       <c r="X7" s="4" t="s">
@@ -7203,22 +8872,22 @@
       <c r="A8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="34" t="s">
         <v>52</v>
       </c>
       <c r="I8" s="4" t="s">
@@ -7234,7 +8903,7 @@
         <v>29</v>
       </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="17" t="s">
+      <c r="O8" s="15" t="s">
         <v>179</v>
       </c>
       <c r="P8" s="4" t="s">
@@ -7255,7 +8924,7 @@
       <c r="U8" s="1">
         <v>3</v>
       </c>
-      <c r="W8" s="17" t="s">
+      <c r="W8" s="15" t="s">
         <v>179</v>
       </c>
       <c r="X8" s="4" t="s">
@@ -7286,22 +8955,22 @@
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="34" t="s">
         <v>68</v>
       </c>
       <c r="I9" s="4" t="s">
@@ -7310,7 +8979,7 @@
       <c r="J9" s="7">
         <v>2</v>
       </c>
-      <c r="O9" s="17" t="s">
+      <c r="O9" s="15" t="s">
         <v>180</v>
       </c>
       <c r="P9" s="4" t="s">
@@ -7331,7 +9000,7 @@
       <c r="U9" s="1">
         <v>3</v>
       </c>
-      <c r="W9" s="17" t="s">
+      <c r="W9" s="15" t="s">
         <v>180</v>
       </c>
       <c r="X9" s="4" t="s">
@@ -7362,22 +9031,22 @@
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="G10" s="41" t="s">
+      <c r="G10" s="35" t="s">
         <v>157</v>
       </c>
       <c r="I10" s="4" t="s">
@@ -7386,7 +9055,7 @@
       <c r="J10" s="7">
         <v>3</v>
       </c>
-      <c r="O10" s="17" t="s">
+      <c r="O10" s="15" t="s">
         <v>181</v>
       </c>
       <c r="P10" s="4" t="s">
@@ -7407,7 +9076,7 @@
       <c r="U10" s="1">
         <v>3</v>
       </c>
-      <c r="W10" s="17" t="s">
+      <c r="W10" s="15" t="s">
         <v>181</v>
       </c>
       <c r="X10" s="4" t="s">
@@ -7438,22 +9107,22 @@
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="40">
+      <c r="B11" s="34">
         <v>4</v>
       </c>
-      <c r="C11" s="40">
+      <c r="C11" s="34">
         <v>4</v>
       </c>
-      <c r="D11" s="40">
-        <v>2</v>
-      </c>
-      <c r="E11" s="40">
+      <c r="D11" s="34">
+        <v>2</v>
+      </c>
+      <c r="E11" s="34">
         <v>4</v>
       </c>
-      <c r="F11" s="40">
+      <c r="F11" s="34">
         <v>4</v>
       </c>
-      <c r="G11" s="40">
+      <c r="G11" s="34">
         <v>2</v>
       </c>
       <c r="I11" s="4" t="s">
@@ -7462,7 +9131,7 @@
       <c r="J11" s="7">
         <v>4</v>
       </c>
-      <c r="O11" s="17" t="s">
+      <c r="O11" s="15" t="s">
         <v>182</v>
       </c>
       <c r="P11" s="4" t="s">
@@ -7483,7 +9152,7 @@
       <c r="U11" s="1">
         <v>3</v>
       </c>
-      <c r="W11" s="17" t="s">
+      <c r="W11" s="15" t="s">
         <v>182</v>
       </c>
       <c r="X11" s="4" t="s">
@@ -7514,22 +9183,22 @@
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="40">
+      <c r="B12" s="34">
         <v>500</v>
       </c>
-      <c r="C12" s="40">
+      <c r="C12" s="34">
         <v>1000</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="34">
         <v>500</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="34">
         <v>500</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="34">
         <v>500</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="34">
         <v>500</v>
       </c>
       <c r="I12" s="4" t="s">
@@ -7538,7 +9207,7 @@
       <c r="J12" s="7">
         <v>3</v>
       </c>
-      <c r="O12" s="17" t="s">
+      <c r="O12" s="15" t="s">
         <v>183</v>
       </c>
       <c r="P12" s="4" t="s">
@@ -7559,7 +9228,7 @@
       <c r="U12" s="1">
         <v>2</v>
       </c>
-      <c r="W12" s="17" t="s">
+      <c r="W12" s="15" t="s">
         <v>183</v>
       </c>
       <c r="X12" s="4" t="s">
@@ -7591,7 +9260,7 @@
         <v>18</v>
       </c>
       <c r="J13" s="12"/>
-      <c r="O13" s="17" t="s">
+      <c r="O13" s="15" t="s">
         <v>184</v>
       </c>
       <c r="P13" s="4" t="s">
@@ -7612,7 +9281,7 @@
       <c r="U13" s="1">
         <v>3</v>
       </c>
-      <c r="W13" s="17" t="s">
+      <c r="W13" s="15" t="s">
         <v>184</v>
       </c>
       <c r="X13" s="4" t="s">
@@ -7640,7 +9309,7 @@
       </c>
     </row>
     <row r="14" spans="1:29">
-      <c r="O14" s="17" t="s">
+      <c r="O14" s="15" t="s">
         <v>185</v>
       </c>
       <c r="P14" s="4" t="s">
@@ -7661,7 +9330,7 @@
       <c r="U14" s="1">
         <v>2</v>
       </c>
-      <c r="W14" s="17" t="s">
+      <c r="W14" s="15" t="s">
         <v>185</v>
       </c>
       <c r="X14" s="4" t="s">
@@ -7689,16 +9358,16 @@
       </c>
     </row>
     <row r="15" spans="1:29">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="I15" s="38" t="s">
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="I15" s="32" t="s">
         <v>37</v>
       </c>
       <c r="J15" s="9" t="s">
@@ -7709,34 +9378,34 @@
       <c r="A16" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="G16" s="42" t="s">
+      <c r="G16" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="40" t="s">
+      <c r="I16" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="J16" s="40">
+      <c r="J16" s="34">
         <v>4</v>
       </c>
-      <c r="O16" s="18" t="s">
+      <c r="O16" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="P16" s="51" t="s">
+      <c r="P16" s="40" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7744,34 +9413,34 @@
       <c r="A17" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="39">
-        <v>1</v>
-      </c>
-      <c r="C17" s="39">
-        <v>1</v>
-      </c>
-      <c r="D17" s="39">
-        <v>1</v>
-      </c>
-      <c r="E17" s="39">
-        <v>1</v>
-      </c>
-      <c r="F17" s="39">
-        <v>2</v>
-      </c>
-      <c r="G17" s="39">
-        <v>2</v>
-      </c>
-      <c r="I17" s="40" t="s">
+      <c r="B17" s="33">
+        <v>1</v>
+      </c>
+      <c r="C17" s="33">
+        <v>1</v>
+      </c>
+      <c r="D17" s="33">
+        <v>1</v>
+      </c>
+      <c r="E17" s="33">
+        <v>1</v>
+      </c>
+      <c r="F17" s="33">
+        <v>2</v>
+      </c>
+      <c r="G17" s="33">
+        <v>2</v>
+      </c>
+      <c r="I17" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="J17" s="40">
-        <v>3</v>
-      </c>
-      <c r="O17" s="52" t="s">
+      <c r="J17" s="34">
+        <v>3</v>
+      </c>
+      <c r="O17" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="P17" s="51" t="s">
+      <c r="P17" s="40" t="s">
         <v>186</v>
       </c>
     </row>
@@ -7779,28 +9448,28 @@
       <c r="A18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="40">
-        <v>3</v>
-      </c>
-      <c r="C18" s="40">
-        <v>2</v>
-      </c>
-      <c r="D18" s="40">
-        <v>3</v>
-      </c>
-      <c r="E18" s="40">
-        <v>3</v>
-      </c>
-      <c r="F18" s="40">
-        <v>3</v>
-      </c>
-      <c r="G18" s="40">
-        <v>3</v>
-      </c>
-      <c r="I18" s="40" t="s">
+      <c r="B18" s="34">
+        <v>3</v>
+      </c>
+      <c r="C18" s="34">
+        <v>2</v>
+      </c>
+      <c r="D18" s="34">
+        <v>3</v>
+      </c>
+      <c r="E18" s="34">
+        <v>3</v>
+      </c>
+      <c r="F18" s="34">
+        <v>3</v>
+      </c>
+      <c r="G18" s="34">
+        <v>3</v>
+      </c>
+      <c r="I18" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="J18" s="40">
+      <c r="J18" s="34">
         <v>2</v>
       </c>
     </row>
@@ -7808,28 +9477,28 @@
       <c r="A19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="40">
-        <v>3</v>
-      </c>
-      <c r="C19" s="40">
-        <v>2</v>
-      </c>
-      <c r="D19" s="40">
-        <v>2</v>
-      </c>
-      <c r="E19" s="40">
-        <v>2</v>
-      </c>
-      <c r="F19" s="40">
-        <v>2</v>
-      </c>
-      <c r="G19" s="40">
-        <v>2</v>
-      </c>
-      <c r="I19" s="40" t="s">
+      <c r="B19" s="34">
+        <v>3</v>
+      </c>
+      <c r="C19" s="34">
+        <v>2</v>
+      </c>
+      <c r="D19" s="34">
+        <v>2</v>
+      </c>
+      <c r="E19" s="34">
+        <v>2</v>
+      </c>
+      <c r="F19" s="34">
+        <v>2</v>
+      </c>
+      <c r="G19" s="34">
+        <v>2</v>
+      </c>
+      <c r="I19" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="J19" s="40">
+      <c r="J19" s="34">
         <v>1</v>
       </c>
     </row>
@@ -7837,52 +9506,52 @@
       <c r="A20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="40">
-        <v>2</v>
-      </c>
-      <c r="C20" s="40">
-        <v>3</v>
-      </c>
-      <c r="D20" s="40">
-        <v>3</v>
-      </c>
-      <c r="E20" s="40">
-        <v>3</v>
-      </c>
-      <c r="F20" s="40">
-        <v>2</v>
-      </c>
-      <c r="G20" s="40">
-        <v>2</v>
-      </c>
-      <c r="J20" s="21"/>
+      <c r="B20" s="34">
+        <v>2</v>
+      </c>
+      <c r="C20" s="34">
+        <v>3</v>
+      </c>
+      <c r="D20" s="34">
+        <v>3</v>
+      </c>
+      <c r="E20" s="34">
+        <v>3</v>
+      </c>
+      <c r="F20" s="34">
+        <v>2</v>
+      </c>
+      <c r="G20" s="34">
+        <v>2</v>
+      </c>
+      <c r="J20" s="19"/>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="40">
+      <c r="B21" s="34">
         <v>4</v>
       </c>
-      <c r="C21" s="40">
+      <c r="C21" s="34">
         <v>4</v>
       </c>
-      <c r="D21" s="40">
-        <v>3</v>
-      </c>
-      <c r="E21" s="40">
-        <v>3</v>
-      </c>
-      <c r="F21" s="40">
-        <v>3</v>
-      </c>
-      <c r="G21" s="40">
-        <v>3</v>
-      </c>
-      <c r="I21" s="38" t="s">
+      <c r="D21" s="34">
+        <v>3</v>
+      </c>
+      <c r="E21" s="34">
+        <v>3</v>
+      </c>
+      <c r="F21" s="34">
+        <v>3</v>
+      </c>
+      <c r="G21" s="34">
+        <v>3</v>
+      </c>
+      <c r="I21" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="J21" s="38" t="s">
+      <c r="J21" s="32" t="s">
         <v>36</v>
       </c>
     </row>
@@ -7890,28 +9559,28 @@
       <c r="A22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="40">
-        <v>1</v>
-      </c>
-      <c r="C22" s="40">
-        <v>1</v>
-      </c>
-      <c r="D22" s="40">
-        <v>1</v>
-      </c>
-      <c r="E22" s="40">
-        <v>1</v>
-      </c>
-      <c r="F22" s="40">
-        <v>1</v>
-      </c>
-      <c r="G22" s="40">
-        <v>1</v>
-      </c>
-      <c r="I22" s="48" t="s">
+      <c r="B22" s="34">
+        <v>1</v>
+      </c>
+      <c r="C22" s="34">
+        <v>1</v>
+      </c>
+      <c r="D22" s="34">
+        <v>1</v>
+      </c>
+      <c r="E22" s="34">
+        <v>1</v>
+      </c>
+      <c r="F22" s="34">
+        <v>1</v>
+      </c>
+      <c r="G22" s="34">
+        <v>1</v>
+      </c>
+      <c r="I22" s="58" t="s">
         <v>170</v>
       </c>
-      <c r="J22" s="49">
+      <c r="J22" s="56">
         <v>1</v>
       </c>
     </row>
@@ -7919,53 +9588,53 @@
       <c r="A23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="41">
-        <v>2</v>
-      </c>
-      <c r="C23" s="41">
-        <v>1</v>
-      </c>
-      <c r="D23" s="41">
-        <v>1</v>
-      </c>
-      <c r="E23" s="41">
-        <v>1</v>
-      </c>
-      <c r="F23" s="41">
-        <v>2</v>
-      </c>
-      <c r="G23" s="41">
-        <v>1</v>
-      </c>
-      <c r="I23" s="48"/>
-      <c r="J23" s="50"/>
+      <c r="B23" s="35">
+        <v>2</v>
+      </c>
+      <c r="C23" s="35">
+        <v>1</v>
+      </c>
+      <c r="D23" s="35">
+        <v>1</v>
+      </c>
+      <c r="E23" s="35">
+        <v>1</v>
+      </c>
+      <c r="F23" s="35">
+        <v>2</v>
+      </c>
+      <c r="G23" s="35">
+        <v>1</v>
+      </c>
+      <c r="I23" s="58"/>
+      <c r="J23" s="57"/>
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1">
       <c r="A24" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="40">
-        <v>2</v>
-      </c>
-      <c r="C24" s="40">
-        <v>3</v>
-      </c>
-      <c r="D24" s="40">
-        <v>2</v>
-      </c>
-      <c r="E24" s="40">
-        <v>3</v>
-      </c>
-      <c r="F24" s="40">
-        <v>3</v>
-      </c>
-      <c r="G24" s="40">
-        <v>2</v>
-      </c>
-      <c r="I24" s="48" t="s">
+      <c r="B24" s="34">
+        <v>2</v>
+      </c>
+      <c r="C24" s="34">
+        <v>3</v>
+      </c>
+      <c r="D24" s="34">
+        <v>2</v>
+      </c>
+      <c r="E24" s="34">
+        <v>3</v>
+      </c>
+      <c r="F24" s="34">
+        <v>3</v>
+      </c>
+      <c r="G24" s="34">
+        <v>2</v>
+      </c>
+      <c r="I24" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="J24" s="49">
+      <c r="J24" s="56">
         <v>2</v>
       </c>
     </row>
@@ -7973,70 +9642,70 @@
       <c r="A25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="40">
-        <v>2</v>
-      </c>
-      <c r="C25" s="40">
-        <v>3</v>
-      </c>
-      <c r="D25" s="40">
-        <v>2</v>
-      </c>
-      <c r="E25" s="40">
-        <v>2</v>
-      </c>
-      <c r="F25" s="40">
-        <v>2</v>
-      </c>
-      <c r="G25" s="40">
-        <v>2</v>
-      </c>
-      <c r="I25" s="48"/>
-      <c r="J25" s="50"/>
+      <c r="B25" s="34">
+        <v>2</v>
+      </c>
+      <c r="C25" s="34">
+        <v>3</v>
+      </c>
+      <c r="D25" s="34">
+        <v>2</v>
+      </c>
+      <c r="E25" s="34">
+        <v>2</v>
+      </c>
+      <c r="F25" s="34">
+        <v>2</v>
+      </c>
+      <c r="G25" s="34">
+        <v>2</v>
+      </c>
+      <c r="I25" s="58"/>
+      <c r="J25" s="57"/>
     </row>
     <row r="26" spans="1:16" ht="15.75" customHeight="1">
-      <c r="I26" s="48" t="s">
+      <c r="I26" s="58" t="s">
         <v>169</v>
       </c>
-      <c r="J26" s="49">
+      <c r="J26" s="56">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:16">
-      <c r="I27" s="48"/>
-      <c r="J27" s="50"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="57"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="42" t="s">
+      <c r="D29" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="42" t="s">
+      <c r="E29" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="F29" s="42" t="s">
+      <c r="F29" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="G29" s="42" t="s">
+      <c r="G29" s="36" t="s">
         <v>74</v>
       </c>
     </row>
@@ -8044,27 +9713,27 @@
       <c r="A30" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="56">
+      <c r="B30" s="42">
         <f>1/$J4/(1/B17)</f>
         <v>0.25</v>
       </c>
-      <c r="C30" s="56">
+      <c r="C30" s="42">
         <f t="shared" ref="C30:G30" si="6">1/$J4/(1/C17)</f>
         <v>0.25</v>
       </c>
-      <c r="D30" s="56">
+      <c r="D30" s="42">
         <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
-      <c r="E30" s="56">
+      <c r="E30" s="42">
         <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
-      <c r="F30" s="56">
+      <c r="F30" s="42">
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="G30" s="56">
+      <c r="G30" s="42">
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
@@ -8073,27 +9742,27 @@
       <c r="A31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="56">
+      <c r="B31" s="42">
         <f t="shared" ref="B31:G31" si="7">1/$J5/(1/B18)</f>
         <v>1</v>
       </c>
-      <c r="C31" s="56">
+      <c r="C31" s="42">
         <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="D31" s="56">
+      <c r="D31" s="42">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="E31" s="56">
+      <c r="E31" s="42">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="F31" s="56">
+      <c r="F31" s="42">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="G31" s="56">
+      <c r="G31" s="42">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -8102,27 +9771,27 @@
       <c r="A32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="56">
+      <c r="B32" s="42">
         <f t="shared" ref="B32:G32" si="8">1/$J6/(1/B19)</f>
         <v>1</v>
       </c>
-      <c r="C32" s="56">
+      <c r="C32" s="42">
         <f t="shared" si="8"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="D32" s="56">
+      <c r="D32" s="42">
         <f t="shared" si="8"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E32" s="56">
+      <c r="E32" s="42">
         <f t="shared" si="8"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="F32" s="56">
+      <c r="F32" s="42">
         <f t="shared" si="8"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G32" s="56">
+      <c r="G32" s="42">
         <f t="shared" si="8"/>
         <v>0.66666666666666663</v>
       </c>
@@ -8131,27 +9800,27 @@
       <c r="A33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="56">
+      <c r="B33" s="42">
         <f t="shared" ref="B33:G33" si="9">1/$J7/(1/B20)</f>
         <v>0.5</v>
       </c>
-      <c r="C33" s="56">
+      <c r="C33" s="42">
         <f t="shared" si="9"/>
         <v>0.75</v>
       </c>
-      <c r="D33" s="56">
+      <c r="D33" s="42">
         <f t="shared" si="9"/>
         <v>0.75</v>
       </c>
-      <c r="E33" s="56">
+      <c r="E33" s="42">
         <f t="shared" si="9"/>
         <v>0.75</v>
       </c>
-      <c r="F33" s="56">
+      <c r="F33" s="42">
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="G33" s="56">
+      <c r="G33" s="42">
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
@@ -8160,27 +9829,27 @@
       <c r="A34" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="56">
+      <c r="B34" s="42">
         <f t="shared" ref="B34:G34" si="10">1/$J8/(1/B21)</f>
         <v>0.8</v>
       </c>
-      <c r="C34" s="56">
+      <c r="C34" s="42">
         <f t="shared" si="10"/>
         <v>0.8</v>
       </c>
-      <c r="D34" s="56">
+      <c r="D34" s="42">
         <f t="shared" si="10"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="E34" s="56">
+      <c r="E34" s="42">
         <f t="shared" si="10"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="F34" s="56">
+      <c r="F34" s="42">
         <f t="shared" si="10"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="G34" s="56">
+      <c r="G34" s="42">
         <f t="shared" si="10"/>
         <v>0.60000000000000009</v>
       </c>
@@ -8189,27 +9858,27 @@
       <c r="A35" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="56">
+      <c r="B35" s="42">
         <f t="shared" ref="B35:G35" si="11">1/$J9/(1/B22)</f>
         <v>0.5</v>
       </c>
-      <c r="C35" s="56">
+      <c r="C35" s="42">
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="D35" s="56">
+      <c r="D35" s="42">
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="E35" s="56">
+      <c r="E35" s="42">
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="F35" s="56">
+      <c r="F35" s="42">
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="G35" s="56">
+      <c r="G35" s="42">
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
@@ -8218,27 +9887,27 @@
       <c r="A36" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="56">
+      <c r="B36" s="42">
         <f t="shared" ref="B36:G36" si="12">1/$J10/(1/B23)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="C36" s="56">
+      <c r="C36" s="42">
         <f t="shared" si="12"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D36" s="56">
+      <c r="D36" s="42">
         <f t="shared" si="12"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E36" s="56">
+      <c r="E36" s="42">
         <f t="shared" si="12"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F36" s="56">
+      <c r="F36" s="42">
         <f t="shared" si="12"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G36" s="56">
+      <c r="G36" s="42">
         <f t="shared" si="12"/>
         <v>0.33333333333333331</v>
       </c>
@@ -8247,27 +9916,27 @@
       <c r="A37" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="56">
+      <c r="B37" s="42">
         <f t="shared" ref="B37:G37" si="13">1/$J11/(1/B24)</f>
         <v>0.5</v>
       </c>
-      <c r="C37" s="56">
+      <c r="C37" s="42">
         <f t="shared" si="13"/>
         <v>0.75</v>
       </c>
-      <c r="D37" s="56">
+      <c r="D37" s="42">
         <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
-      <c r="E37" s="56">
+      <c r="E37" s="42">
         <f t="shared" si="13"/>
         <v>0.75</v>
       </c>
-      <c r="F37" s="56">
+      <c r="F37" s="42">
         <f t="shared" si="13"/>
         <v>0.75</v>
       </c>
-      <c r="G37" s="56">
+      <c r="G37" s="42">
         <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
@@ -8276,27 +9945,27 @@
       <c r="A38" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="56">
+      <c r="B38" s="42">
         <f t="shared" ref="B38:G38" si="14">1/$J12/(1/B25)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="C38" s="56">
+      <c r="C38" s="42">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="D38" s="56">
+      <c r="D38" s="42">
         <f t="shared" si="14"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E38" s="56">
+      <c r="E38" s="42">
         <f t="shared" si="14"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="F38" s="56">
+      <c r="F38" s="42">
         <f t="shared" si="14"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G38" s="56">
+      <c r="G38" s="42">
         <f t="shared" si="14"/>
         <v>0.66666666666666663</v>
       </c>
@@ -8305,22 +9974,22 @@
       <c r="A41" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="42" t="s">
+      <c r="B41" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="42" t="s">
+      <c r="C41" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="D41" s="42" t="s">
+      <c r="D41" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="E41" s="42" t="s">
+      <c r="E41" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="F41" s="42" t="s">
+      <c r="F41" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="G41" s="42" t="s">
+      <c r="G41" s="36" t="s">
         <v>74</v>
       </c>
     </row>
@@ -8328,27 +9997,27 @@
       <c r="A42" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="56">
+      <c r="B42" s="42">
         <f>B30*$Y6</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="C42" s="56">
+      <c r="C42" s="42">
         <f t="shared" ref="C42:G42" si="15">C30*$Y6</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D42" s="56">
+      <c r="D42" s="42">
         <f t="shared" si="15"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="E42" s="56">
+      <c r="E42" s="42">
         <f t="shared" si="15"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="F42" s="56">
+      <c r="F42" s="42">
         <f t="shared" si="15"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G42" s="56">
+      <c r="G42" s="42">
         <f t="shared" si="15"/>
         <v>0.33333333333333331</v>
       </c>
@@ -8357,27 +10026,27 @@
       <c r="A43" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="56">
+      <c r="B43" s="42">
         <f t="shared" ref="B43:G50" si="16">B31*$Y7</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="C43" s="56">
+      <c r="C43" s="42">
         <f t="shared" si="16"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="D43" s="56">
+      <c r="D43" s="42">
         <f t="shared" si="16"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E43" s="56">
+      <c r="E43" s="42">
         <f t="shared" si="16"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="F43" s="56">
+      <c r="F43" s="42">
         <f t="shared" si="16"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G43" s="56">
+      <c r="G43" s="42">
         <f t="shared" si="16"/>
         <v>0.66666666666666663</v>
       </c>
@@ -8386,27 +10055,27 @@
       <c r="A44" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="56">
+      <c r="B44" s="42">
         <f t="shared" si="16"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="C44" s="56">
+      <c r="C44" s="42">
         <f t="shared" si="16"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="D44" s="56">
+      <c r="D44" s="42">
         <f t="shared" si="16"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="E44" s="56">
+      <c r="E44" s="42">
         <f t="shared" si="16"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="F44" s="56">
+      <c r="F44" s="42">
         <f t="shared" si="16"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="G44" s="56">
+      <c r="G44" s="42">
         <f t="shared" si="16"/>
         <v>0.22222222222222221</v>
       </c>
@@ -8415,27 +10084,27 @@
       <c r="A45" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="56">
+      <c r="B45" s="42">
         <f t="shared" si="16"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="C45" s="56">
+      <c r="C45" s="42">
         <f t="shared" si="16"/>
         <v>0.25</v>
       </c>
-      <c r="D45" s="56">
+      <c r="D45" s="42">
         <f t="shared" si="16"/>
         <v>0.25</v>
       </c>
-      <c r="E45" s="56">
+      <c r="E45" s="42">
         <f t="shared" si="16"/>
         <v>0.25</v>
       </c>
-      <c r="F45" s="56">
+      <c r="F45" s="42">
         <f t="shared" si="16"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G45" s="56">
+      <c r="G45" s="42">
         <f t="shared" si="16"/>
         <v>0.16666666666666666</v>
       </c>
@@ -8444,27 +10113,27 @@
       <c r="A46" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B46" s="56">
+      <c r="B46" s="42">
         <f t="shared" si="16"/>
         <v>0.53333333333333333</v>
       </c>
-      <c r="C46" s="56">
+      <c r="C46" s="42">
         <f t="shared" si="16"/>
         <v>0.53333333333333333</v>
       </c>
-      <c r="D46" s="56">
+      <c r="D46" s="42">
         <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
-      <c r="E46" s="56">
+      <c r="E46" s="42">
         <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
-      <c r="F46" s="56">
+      <c r="F46" s="42">
         <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
-      <c r="G46" s="56">
+      <c r="G46" s="42">
         <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
@@ -8473,27 +10142,27 @@
       <c r="A47" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B47" s="56">
+      <c r="B47" s="42">
         <f t="shared" si="16"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="C47" s="56">
+      <c r="C47" s="42">
         <f t="shared" si="16"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D47" s="56">
+      <c r="D47" s="42">
         <f t="shared" si="16"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E47" s="56">
+      <c r="E47" s="42">
         <f t="shared" si="16"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F47" s="56">
+      <c r="F47" s="42">
         <f t="shared" si="16"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G47" s="56">
+      <c r="G47" s="42">
         <f t="shared" si="16"/>
         <v>0.33333333333333331</v>
       </c>
@@ -8502,27 +10171,27 @@
       <c r="A48" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="56">
+      <c r="B48" s="42">
         <f t="shared" si="16"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="C48" s="56">
+      <c r="C48" s="42">
         <f t="shared" si="16"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="D48" s="56">
+      <c r="D48" s="42">
         <f t="shared" si="16"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="E48" s="56">
+      <c r="E48" s="42">
         <f t="shared" si="16"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="F48" s="56">
+      <c r="F48" s="42">
         <f t="shared" si="16"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="G48" s="56">
+      <c r="G48" s="42">
         <f t="shared" si="16"/>
         <v>0.22222222222222221</v>
       </c>
@@ -8531,27 +10200,27 @@
       <c r="A49" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="56">
+      <c r="B49" s="42">
         <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
-      <c r="C49" s="56">
+      <c r="C49" s="42">
         <f t="shared" si="16"/>
         <v>0.75</v>
       </c>
-      <c r="D49" s="56">
+      <c r="D49" s="42">
         <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
-      <c r="E49" s="56">
+      <c r="E49" s="42">
         <f t="shared" si="16"/>
         <v>0.75</v>
       </c>
-      <c r="F49" s="56">
+      <c r="F49" s="42">
         <f t="shared" si="16"/>
         <v>0.75</v>
       </c>
-      <c r="G49" s="56">
+      <c r="G49" s="42">
         <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
@@ -8560,73 +10229,73 @@
       <c r="A50" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="56">
+      <c r="B50" s="42">
         <f t="shared" si="16"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="C50" s="56">
+      <c r="C50" s="42">
         <f t="shared" si="16"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="D50" s="56">
+      <c r="D50" s="42">
         <f t="shared" si="16"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="E50" s="56">
+      <c r="E50" s="42">
         <f t="shared" si="16"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="F50" s="56">
+      <c r="F50" s="42">
         <f t="shared" si="16"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="G50" s="56">
+      <c r="G50" s="42">
         <f t="shared" si="16"/>
         <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="57" t="s">
+      <c r="A51" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B51" s="58">
+      <c r="B51" s="44">
         <f>SUM(B42:B50)</f>
         <v>3.5888888888888895</v>
       </c>
-      <c r="C51" s="58">
+      <c r="C51" s="44">
         <f t="shared" ref="C51:G51" si="17">SUM(C42:C50)</f>
         <v>3.5888888888888886</v>
       </c>
-      <c r="D51" s="58">
+      <c r="D51" s="44">
         <f t="shared" si="17"/>
         <v>3.2055555555555557</v>
       </c>
-      <c r="E51" s="58">
+      <c r="E51" s="44">
         <f t="shared" si="17"/>
         <v>3.4555555555555557</v>
       </c>
-      <c r="F51" s="58">
+      <c r="F51" s="44">
         <f t="shared" si="17"/>
         <v>3.761111111111112</v>
       </c>
-      <c r="G51" s="58">
+      <c r="G51" s="44">
         <f t="shared" si="17"/>
         <v>3.2888888888888896</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="L4:U4"/>
-    <mergeCell ref="W4:AC4"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="A28:G28"/>
     <mergeCell ref="I22:I23"/>
     <mergeCell ref="I24:I25"/>
     <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="L4:U4"/>
+    <mergeCell ref="W4:AC4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/perhitungan laptop.xlsx
+++ b/Data/perhitungan laptop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\wkroc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C04D725-F220-428E-A30F-0329B317A10E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4650FC-9EAD-4DE3-A5A1-FEAF88D5AF6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1051,13 +1051,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1343,8 +1343,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2163,7 +2163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C551A9-25DD-4097-A156-9DD73C6A68BE}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
@@ -3817,7 +3817,7 @@
   <dimension ref="B1:J25"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4093,11 +4093,14 @@
         <v>4</v>
       </c>
       <c r="D16" s="7">
-        <f t="shared" ref="D16:D24" si="0">C16/SUM(C$16:C$24)</f>
+        <f>C16/SUM(C$16:C$24)</f>
         <v>0.12903225806451613</v>
       </c>
-    </row>
-    <row r="17" spans="2:4">
+      <c r="E16">
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17" s="4" t="s">
         <v>1</v>
       </c>
@@ -4105,11 +4108,14 @@
         <v>3</v>
       </c>
       <c r="D17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D16:D24" si="0">C17/SUM(C$16:C$24)</f>
         <v>9.6774193548387094E-2</v>
       </c>
-    </row>
-    <row r="18" spans="2:4">
+      <c r="E17">
+        <v>9.6799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" s="4" t="s">
         <v>2</v>
       </c>
@@ -4120,8 +4126,11 @@
         <f t="shared" si="0"/>
         <v>9.6774193548387094E-2</v>
       </c>
-    </row>
-    <row r="19" spans="2:4">
+      <c r="E18">
+        <v>9.6799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
       <c r="B19" s="4" t="s">
         <v>3</v>
       </c>
@@ -4132,8 +4141,11 @@
         <f t="shared" si="0"/>
         <v>0.12903225806451613</v>
       </c>
-    </row>
-    <row r="20" spans="2:4">
+      <c r="E19">
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
       <c r="B20" s="4" t="s">
         <v>40</v>
       </c>
@@ -4144,8 +4156,11 @@
         <f t="shared" si="0"/>
         <v>0.16129032258064516</v>
       </c>
-    </row>
-    <row r="21" spans="2:4">
+      <c r="E20">
+        <v>0.1613</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
       <c r="B21" s="4" t="s">
         <v>41</v>
       </c>
@@ -4156,8 +4171,11 @@
         <f t="shared" si="0"/>
         <v>6.4516129032258063E-2</v>
       </c>
-    </row>
-    <row r="22" spans="2:4">
+      <c r="E21">
+        <v>6.4500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
       <c r="B22" s="4" t="s">
         <v>4</v>
       </c>
@@ -4168,8 +4186,11 @@
         <f t="shared" si="0"/>
         <v>9.6774193548387094E-2</v>
       </c>
-    </row>
-    <row r="23" spans="2:4">
+      <c r="E22">
+        <v>9.6799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
       <c r="B23" s="4" t="s">
         <v>6</v>
       </c>
@@ -4180,8 +4201,11 @@
         <f t="shared" si="0"/>
         <v>0.12903225806451613</v>
       </c>
-    </row>
-    <row r="24" spans="2:4">
+      <c r="E23">
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
       <c r="B24" s="4" t="s">
         <v>5</v>
       </c>
@@ -4192,8 +4216,11 @@
         <f t="shared" si="0"/>
         <v>9.6774193548387094E-2</v>
       </c>
-    </row>
-    <row r="25" spans="2:4">
+      <c r="E24">
+        <v>9.6799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
       <c r="B25" s="11" t="s">
         <v>18</v>
       </c>
@@ -4217,8 +4244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M124"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C71"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5351,8 +5378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:AC105"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8520,8 +8547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:AC51"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9577,10 +9604,10 @@
       <c r="G22" s="34">
         <v>1</v>
       </c>
-      <c r="I22" s="58" t="s">
+      <c r="I22" s="56" t="s">
         <v>170</v>
       </c>
-      <c r="J22" s="56">
+      <c r="J22" s="57">
         <v>1</v>
       </c>
     </row>
@@ -9606,8 +9633,8 @@
       <c r="G23" s="35">
         <v>1</v>
       </c>
-      <c r="I23" s="58"/>
-      <c r="J23" s="57"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="58"/>
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1">
       <c r="A24" s="4" t="s">
@@ -9631,10 +9658,10 @@
       <c r="G24" s="34">
         <v>2</v>
       </c>
-      <c r="I24" s="58" t="s">
+      <c r="I24" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="J24" s="56">
+      <c r="J24" s="57">
         <v>2</v>
       </c>
     </row>
@@ -9660,20 +9687,20 @@
       <c r="G25" s="34">
         <v>2</v>
       </c>
-      <c r="I25" s="58"/>
-      <c r="J25" s="57"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="58"/>
     </row>
     <row r="26" spans="1:16" ht="15.75" customHeight="1">
-      <c r="I26" s="58" t="s">
+      <c r="I26" s="56" t="s">
         <v>169</v>
       </c>
-      <c r="J26" s="56">
+      <c r="J26" s="57">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:16">
-      <c r="I27" s="58"/>
-      <c r="J27" s="57"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="58"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="49" t="s">
@@ -10285,17 +10312,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="L4:U4"/>
+    <mergeCell ref="W4:AC4"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="A28:G28"/>
     <mergeCell ref="I22:I23"/>
     <mergeCell ref="I24:I25"/>
     <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="L4:U4"/>
-    <mergeCell ref="W4:AC4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/perhitungan laptop.xlsx
+++ b/Data/perhitungan laptop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\wkroc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4650FC-9EAD-4DE3-A5A1-FEAF88D5AF6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5C4E62-96AF-41D4-8D73-28ED7C6D21C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1051,13 +1051,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4108,7 +4108,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="7">
-        <f t="shared" ref="D16:D24" si="0">C17/SUM(C$16:C$24)</f>
+        <f t="shared" ref="D17:D24" si="0">C17/SUM(C$16:C$24)</f>
         <v>9.6774193548387094E-2</v>
       </c>
       <c r="E17">
@@ -5378,8 +5378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:AC105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6646,7 +6646,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:17">
       <c r="A33" s="4" t="s">
         <v>3</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:17">
       <c r="A34" s="4" t="s">
         <v>40</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:17">
       <c r="A35" s="4" t="s">
         <v>41</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:17">
       <c r="A36" s="4" t="s">
         <v>4</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:17">
       <c r="A37" s="4" t="s">
         <v>6</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:17">
       <c r="A38" s="4" t="s">
         <v>5</v>
       </c>
@@ -6820,7 +6820,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:17">
       <c r="A41" s="4" t="s">
         <v>191</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:17">
       <c r="A42" s="4" t="s">
         <v>0</v>
       </c>
@@ -6871,8 +6871,35 @@
         <f>G30*Y4</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="I42">
+        <v>0.5</v>
+      </c>
+      <c r="J42">
+        <v>0.67</v>
+      </c>
+      <c r="K42">
+        <v>0.22</v>
+      </c>
+      <c r="L42">
+        <v>0.17</v>
+      </c>
+      <c r="M42">
+        <v>0.53</v>
+      </c>
+      <c r="N42">
+        <v>0.33</v>
+      </c>
+      <c r="O42">
+        <v>0.22</v>
+      </c>
+      <c r="P42">
+        <v>0.5</v>
+      </c>
+      <c r="Q42">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" s="4" t="s">
         <v>1</v>
       </c>
@@ -6901,7 +6928,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:17">
       <c r="A44" s="4" t="s">
         <v>2</v>
       </c>
@@ -6930,7 +6957,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:17">
       <c r="A45" s="4" t="s">
         <v>3</v>
       </c>
@@ -6958,8 +6985,35 @@
         <f t="shared" si="23"/>
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="I45">
+        <v>0.5</v>
+      </c>
+      <c r="J45">
+        <v>0.67</v>
+      </c>
+      <c r="K45">
+        <v>0.22</v>
+      </c>
+      <c r="L45">
+        <v>0.17</v>
+      </c>
+      <c r="M45">
+        <v>0.53</v>
+      </c>
+      <c r="N45">
+        <v>0.33</v>
+      </c>
+      <c r="O45">
+        <v>0.22</v>
+      </c>
+      <c r="P45">
+        <v>0.5</v>
+      </c>
+      <c r="Q45">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" s="4" t="s">
         <v>40</v>
       </c>
@@ -6988,7 +7042,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:17">
       <c r="A47" s="4" t="s">
         <v>41</v>
       </c>
@@ -7017,7 +7071,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:17">
       <c r="A48" s="4" t="s">
         <v>4</v>
       </c>
@@ -9604,10 +9658,10 @@
       <c r="G22" s="34">
         <v>1</v>
       </c>
-      <c r="I22" s="56" t="s">
+      <c r="I22" s="58" t="s">
         <v>170</v>
       </c>
-      <c r="J22" s="57">
+      <c r="J22" s="56">
         <v>1</v>
       </c>
     </row>
@@ -9633,8 +9687,8 @@
       <c r="G23" s="35">
         <v>1</v>
       </c>
-      <c r="I23" s="56"/>
-      <c r="J23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="57"/>
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1">
       <c r="A24" s="4" t="s">
@@ -9658,10 +9712,10 @@
       <c r="G24" s="34">
         <v>2</v>
       </c>
-      <c r="I24" s="56" t="s">
+      <c r="I24" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="J24" s="57">
+      <c r="J24" s="56">
         <v>2</v>
       </c>
     </row>
@@ -9687,20 +9741,20 @@
       <c r="G25" s="34">
         <v>2</v>
       </c>
-      <c r="I25" s="56"/>
-      <c r="J25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="57"/>
     </row>
     <row r="26" spans="1:16" ht="15.75" customHeight="1">
-      <c r="I26" s="56" t="s">
+      <c r="I26" s="58" t="s">
         <v>169</v>
       </c>
-      <c r="J26" s="57">
+      <c r="J26" s="56">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:16">
-      <c r="I27" s="56"/>
-      <c r="J27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="57"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="49" t="s">
@@ -10312,17 +10366,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="L4:U4"/>
-    <mergeCell ref="W4:AC4"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="A28:G28"/>
     <mergeCell ref="I22:I23"/>
     <mergeCell ref="I24:I25"/>
     <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="L4:U4"/>
+    <mergeCell ref="W4:AC4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
